--- a/Sep19/pos_prof/Tables/individual_countries-M.xlsx
+++ b/Sep19/pos_prof/Tables/individual_countries-M.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="137">
   <si>
     <t>M_ETR</t>
   </si>
@@ -26,6 +26,12 @@
   </si>
   <si>
     <t>M_POP</t>
+  </si>
+  <si>
+    <t>M_TotalTax</t>
+  </si>
+  <si>
+    <t>M_CorpTax</t>
   </si>
   <si>
     <t>GFA - Sales</t>
@@ -776,15 +782,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M123"/>
+  <dimension ref="A1:O123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -822,10 +828,16 @@
       <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B2">
         <v>0.4638803329537388</v>
@@ -840,33 +852,39 @@
         <v>9223731.5</v>
       </c>
       <c r="F2">
+        <v>42494218261.79173</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
         <v>-799289183.0393182</v>
       </c>
-      <c r="G2">
+      <c r="I2">
         <v>-1064412553.68091</v>
       </c>
-      <c r="H2">
+      <c r="J2">
         <v>-779744073.4614228</v>
       </c>
-      <c r="I2">
+      <c r="K2">
         <v>-957856076.374464</v>
       </c>
-      <c r="J2">
+      <c r="L2">
         <v>-107393774.4178085</v>
       </c>
-      <c r="K2">
+      <c r="M2">
         <v>-143016175.0004168</v>
       </c>
-      <c r="L2">
+      <c r="N2">
         <v>-536968872.0890436</v>
       </c>
-      <c r="M2">
+      <c r="O2">
         <v>-715080875.0020847</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B3">
         <v>0.6205371966434521</v>
@@ -881,33 +899,39 @@
         <v>2879841.25</v>
       </c>
       <c r="F3">
+        <v>2998814894.49083</v>
+      </c>
+      <c r="G3">
+        <v>270011767.8991651</v>
+      </c>
+      <c r="H3">
         <v>-464324.4609232715</v>
       </c>
-      <c r="G3">
+      <c r="I3">
         <v>7437031.410597071</v>
       </c>
-      <c r="H3">
+      <c r="J3">
         <v>41988.95926965587</v>
       </c>
-      <c r="I3">
+      <c r="K3">
         <v>5350183.090173729</v>
       </c>
-      <c r="J3">
+      <c r="L3">
         <v>-62387.37802437088</v>
       </c>
-      <c r="K3">
+      <c r="M3">
         <v>999251.448156444</v>
       </c>
-      <c r="L3">
+      <c r="N3">
         <v>-311936.8901218539</v>
       </c>
-      <c r="M3">
+      <c r="O3">
         <v>4996257.240782219</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:15">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B4">
         <v>1.038985817918542</v>
@@ -922,33 +946,39 @@
         <v>2919609</v>
       </c>
       <c r="F4">
+        <v>2218564329.546198</v>
+      </c>
+      <c r="G4">
+        <v>294014058.9589359</v>
+      </c>
+      <c r="H4">
         <v>2652620.338603836</v>
       </c>
-      <c r="G4">
+      <c r="I4">
         <v>12105423.04379745</v>
       </c>
-      <c r="H4">
+      <c r="J4">
         <v>1975263.618406588</v>
       </c>
-      <c r="I4">
+      <c r="K4">
         <v>8325732.152694742</v>
       </c>
-      <c r="J4">
+      <c r="L4">
         <v>356410.3159470612</v>
       </c>
-      <c r="K4">
+      <c r="M4">
         <v>1626504.022804692</v>
       </c>
-      <c r="L4">
+      <c r="N4">
         <v>1782051.579735306</v>
       </c>
-      <c r="M4">
+      <c r="O4">
         <v>8132520.11402346</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:15">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B5">
         <v>0.5446460905169289</v>
@@ -963,33 +993,39 @@
         <v>43629437.75</v>
       </c>
       <c r="F5">
+        <v>166710713995.8035</v>
+      </c>
+      <c r="G5">
+        <v>15465937803.46667</v>
+      </c>
+      <c r="H5">
         <v>437942718.8099303</v>
       </c>
-      <c r="G5">
+      <c r="I5">
         <v>1672342226.546561</v>
       </c>
-      <c r="H5">
+      <c r="J5">
         <v>230951666.9519606</v>
       </c>
-      <c r="I5">
+      <c r="K5">
         <v>1060231138.564681</v>
       </c>
-      <c r="J5">
+      <c r="L5">
         <v>58842684.9128046</v>
       </c>
-      <c r="K5">
+      <c r="M5">
         <v>224698579.2353487</v>
       </c>
-      <c r="L5">
+      <c r="N5">
         <v>294213424.5640225</v>
       </c>
-      <c r="M5">
+      <c r="O5">
         <v>1123492896.176744</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:15">
       <c r="A6" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B6">
         <v>0.3718662846962684</v>
@@ -1004,33 +1040,39 @@
         <v>8683733.75</v>
       </c>
       <c r="F6">
+        <v>163227474729.9723</v>
+      </c>
+      <c r="G6">
+        <v>9639820060.340796</v>
+      </c>
+      <c r="H6">
         <v>801085565.1437331</v>
       </c>
-      <c r="G6">
+      <c r="I6">
         <v>736209802.1512232</v>
       </c>
-      <c r="H6">
+      <c r="J6">
         <v>584262183.8242508</v>
       </c>
-      <c r="I6">
+      <c r="K6">
         <v>540678126.8656181</v>
       </c>
-      <c r="J6">
+      <c r="L6">
         <v>107635139.1936413</v>
       </c>
-      <c r="K6">
+      <c r="M6">
         <v>98918327.80191492</v>
       </c>
-      <c r="L6">
+      <c r="N6">
         <v>538175695.9682069</v>
       </c>
-      <c r="M6">
+      <c r="O6">
         <v>494591639.0095747</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:15">
       <c r="A7" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B7">
         <v>1.078298440014149</v>
@@ -1045,33 +1087,39 @@
         <v>24041166</v>
       </c>
       <c r="F7">
+        <v>361502269857.717</v>
+      </c>
+      <c r="G7">
+        <v>59545549400.06455</v>
+      </c>
+      <c r="H7">
         <v>7480979296.030525</v>
       </c>
-      <c r="G7">
+      <c r="I7">
         <v>8758890813.22497</v>
       </c>
-      <c r="H7">
+      <c r="J7">
         <v>12185299369.29324</v>
       </c>
-      <c r="I7">
+      <c r="K7">
         <v>13043810557.20674</v>
       </c>
-      <c r="J7">
+      <c r="L7">
         <v>1005156356.410593</v>
       </c>
-      <c r="K7">
+      <c r="M7">
         <v>1176858593.993293</v>
       </c>
-      <c r="L7">
+      <c r="N7">
         <v>5025781782.05296</v>
       </c>
-      <c r="M7">
+      <c r="O7">
         <v>5884292969.966463</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:15">
       <c r="A8" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B8">
         <v>0.1054646367899041</v>
@@ -1086,33 +1134,39 @@
         <v>104555.5</v>
       </c>
       <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
         <v>-122781759.7627237</v>
       </c>
-      <c r="G8">
+      <c r="I8">
         <v>-128734529.6131997</v>
       </c>
-      <c r="H8">
+      <c r="J8">
         <v>-130863364.5193991</v>
       </c>
-      <c r="I8">
+      <c r="K8">
         <v>-134862482.9614393</v>
       </c>
-      <c r="J8">
+      <c r="L8">
         <v>-16497153.83415979</v>
       </c>
-      <c r="K8">
+      <c r="M8">
         <v>-17296977.52256781</v>
       </c>
-      <c r="L8">
+      <c r="N8">
         <v>-82485769.17079899</v>
       </c>
-      <c r="M8">
+      <c r="O8">
         <v>-86484887.61283915</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:15">
       <c r="A9" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B9">
         <v>0.1341051709628467</v>
@@ -1127,33 +1181,39 @@
         <v>0</v>
       </c>
       <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
         <v>-81600662.52016078</v>
       </c>
-      <c r="G9">
+      <c r="I9">
         <v>52712517.67424187</v>
       </c>
-      <c r="H9">
+      <c r="J9">
         <v>-72762599.89297593</v>
       </c>
-      <c r="I9">
+      <c r="K9">
         <v>17470069.84169391</v>
       </c>
-      <c r="J9">
+      <c r="L9">
         <v>-10963995.67139244</v>
       </c>
-      <c r="K9">
+      <c r="M9">
         <v>7082538.275541544</v>
       </c>
-      <c r="L9">
+      <c r="N9">
         <v>-54819978.35696221</v>
       </c>
-      <c r="M9">
+      <c r="O9">
         <v>35412691.37770763</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:15">
       <c r="A10" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B10">
         <v>0.08550529520849598</v>
@@ -1168,33 +1228,39 @@
         <v>3531449</v>
       </c>
       <c r="F10">
+        <v>6376905261.574483</v>
+      </c>
+      <c r="G10">
+        <v>299987147.5604433</v>
+      </c>
+      <c r="H10">
         <v>-4273916.254410397</v>
       </c>
-      <c r="G10">
+      <c r="I10">
         <v>3622669.341360502</v>
       </c>
-      <c r="H10">
+      <c r="J10">
         <v>-6031588.80099753</v>
       </c>
-      <c r="I10">
+      <c r="K10">
         <v>-726599.3795316499</v>
       </c>
-      <c r="J10">
+      <c r="L10">
         <v>-574250.2311384046</v>
       </c>
-      <c r="K10">
+      <c r="M10">
         <v>486747.6531547718</v>
       </c>
-      <c r="L10">
+      <c r="N10">
         <v>-2871251.155692029</v>
       </c>
-      <c r="M10">
+      <c r="O10">
         <v>2433738.26577385</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:15">
       <c r="A11" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B11">
         <v>0.0166705414399613</v>
@@ -1209,33 +1275,39 @@
         <v>284579.25</v>
       </c>
       <c r="F11">
+        <v>1337070536.443148</v>
+      </c>
+      <c r="G11">
+        <v>130111830.9037901</v>
+      </c>
+      <c r="H11">
         <v>-519039043.7897809</v>
       </c>
-      <c r="G11">
+      <c r="I11">
         <v>-887588107.5221336</v>
       </c>
-      <c r="H11">
+      <c r="J11">
         <v>-357828012.6800927</v>
       </c>
-      <c r="I11">
+      <c r="K11">
         <v>-605422224.2135415</v>
       </c>
-      <c r="J11">
+      <c r="L11">
         <v>-69738916.98475885</v>
       </c>
-      <c r="K11">
+      <c r="M11">
         <v>-119257759.2914486</v>
       </c>
-      <c r="L11">
+      <c r="N11">
         <v>-348694584.9237951</v>
       </c>
-      <c r="M11">
+      <c r="O11">
         <v>-596288796.4572438</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:15">
       <c r="A12" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B12">
         <v>0.3807937740264143</v>
@@ -1250,33 +1322,39 @@
         <v>162056869</v>
       </c>
       <c r="F12">
+        <v>19299500079.81276</v>
+      </c>
+      <c r="G12">
+        <v>3852631858.235275</v>
+      </c>
+      <c r="H12">
         <v>-318236308.7509055</v>
       </c>
-      <c r="G12">
+      <c r="I12">
         <v>-285897616.4666043</v>
       </c>
-      <c r="H12">
+      <c r="J12">
         <v>-231900083.5184748</v>
       </c>
-      <c r="I12">
+      <c r="K12">
         <v>-210174691.145835</v>
       </c>
-      <c r="J12">
+      <c r="L12">
         <v>-42758739.98894042</v>
       </c>
-      <c r="K12">
+      <c r="M12">
         <v>-38413661.51441246</v>
       </c>
-      <c r="L12">
+      <c r="N12">
         <v>-213793699.9447025</v>
       </c>
-      <c r="M12">
+      <c r="O12">
         <v>-192068307.5720627</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:15">
       <c r="A13" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B13">
         <v>0.1765509802813119</v>
@@ -1291,33 +1369,39 @@
         <v>11296685.75</v>
       </c>
       <c r="F13">
+        <v>207904913535.2679</v>
+      </c>
+      <c r="G13">
+        <v>19310426587.22296</v>
+      </c>
+      <c r="H13">
         <v>4532642526.100584</v>
       </c>
-      <c r="G13">
+      <c r="I13">
         <v>1385173490.525105</v>
       </c>
-      <c r="H13">
+      <c r="J13">
         <v>3666661374.894741</v>
       </c>
-      <c r="I13">
+      <c r="K13">
         <v>1552166478.890352</v>
       </c>
-      <c r="J13">
+      <c r="L13">
         <v>609013107.2631674</v>
       </c>
-      <c r="K13">
+      <c r="M13">
         <v>186114128.0622902</v>
       </c>
-      <c r="L13">
+      <c r="N13">
         <v>3045065536.315832</v>
       </c>
-      <c r="M13">
+      <c r="O13">
         <v>930570640.3114432</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:15">
       <c r="A14" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B14">
         <v>0.08541399034785069</v>
@@ -1332,33 +1416,39 @@
         <v>7151435.5</v>
       </c>
       <c r="F14">
+        <v>15635710825.9256</v>
+      </c>
+      <c r="G14">
+        <v>1209008774.759262</v>
+      </c>
+      <c r="H14">
         <v>9422694.103069812</v>
       </c>
-      <c r="G14">
+      <c r="I14">
         <v>278508787.3000304</v>
       </c>
-      <c r="H14">
+      <c r="J14">
         <v>50699218.18743312</v>
       </c>
-      <c r="I14">
+      <c r="K14">
         <v>231473409.8378054</v>
       </c>
-      <c r="J14">
+      <c r="L14">
         <v>1266048.266867816</v>
       </c>
-      <c r="K14">
+      <c r="M14">
         <v>37420886.59694228</v>
       </c>
-      <c r="L14">
+      <c r="N14">
         <v>6330241.334338962</v>
       </c>
-      <c r="M14">
+      <c r="O14">
         <v>187104432.9847112</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:15">
       <c r="A15" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B15">
         <v>0.03195894343465661</v>
@@ -1373,33 +1463,39 @@
         <v>1406501.75</v>
       </c>
       <c r="F15">
+        <v>344245067.4295055</v>
+      </c>
+      <c r="G15">
+        <v>41603949.32570496</v>
+      </c>
+      <c r="H15">
         <v>-98989316.60143726</v>
       </c>
-      <c r="G15">
+      <c r="I15">
         <v>-67503169.5138509</v>
       </c>
-      <c r="H15">
+      <c r="J15">
         <v>-110704524.0128332</v>
       </c>
-      <c r="I15">
+      <c r="K15">
         <v>-89551878.3286249</v>
       </c>
-      <c r="J15">
+      <c r="L15">
         <v>-13300363.07565651</v>
       </c>
-      <c r="K15">
+      <c r="M15">
         <v>-9069833.938814847</v>
       </c>
-      <c r="L15">
+      <c r="N15">
         <v>-66501815.37828255</v>
       </c>
-      <c r="M15">
+      <c r="O15">
         <v>-45349169.69407427</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:15">
       <c r="A16" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B16">
         <v>0.01916494299570608</v>
@@ -1414,33 +1510,39 @@
         <v>65290</v>
       </c>
       <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
         <v>-18249076544.92316</v>
       </c>
-      <c r="G16">
+      <c r="I16">
         <v>-21560567389.44076</v>
       </c>
-      <c r="H16">
+      <c r="J16">
         <v>-19542208647.94688</v>
       </c>
-      <c r="I16">
+      <c r="K16">
         <v>-21766894708.31902</v>
       </c>
-      <c r="J16">
+      <c r="L16">
         <v>-2451975144.148041</v>
       </c>
-      <c r="K16">
+      <c r="M16">
         <v>-2896912356.222469</v>
       </c>
-      <c r="L16">
+      <c r="N16">
         <v>-12259875720.7402</v>
       </c>
-      <c r="M16">
+      <c r="O16">
         <v>-14484561781.11235</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:15">
       <c r="A17" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B17">
         <v>0.5435900323311412</v>
@@ -1455,33 +1557,39 @@
         <v>10806586.5</v>
       </c>
       <c r="F17">
+        <v>10765106899.85116</v>
+      </c>
+      <c r="G17">
+        <v>1857238890.070168</v>
+      </c>
+      <c r="H17">
         <v>48645616.443095</v>
       </c>
-      <c r="G17">
+      <c r="I17">
         <v>91195404.47542854</v>
       </c>
-      <c r="H17">
+      <c r="J17">
         <v>49649491.07129186</v>
       </c>
-      <c r="I17">
+      <c r="K17">
         <v>78234779.31511651</v>
       </c>
-      <c r="J17">
+      <c r="L17">
         <v>6536102.914391628</v>
       </c>
-      <c r="K17">
+      <c r="M17">
         <v>12253160.56315656</v>
       </c>
-      <c r="L17">
+      <c r="N17">
         <v>32680514.57195814</v>
       </c>
-      <c r="M17">
+      <c r="O17">
         <v>61265802.81578279</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:15">
       <c r="A18" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B18">
         <v>6.471261278245624</v>
@@ -1496,33 +1604,39 @@
         <v>206779096</v>
       </c>
       <c r="F18">
+        <v>614031604400.1611</v>
+      </c>
+      <c r="G18">
+        <v>50490649816.95195</v>
+      </c>
+      <c r="H18">
         <v>11995937343.2068</v>
       </c>
-      <c r="G18">
+      <c r="I18">
         <v>19545944039.04314</v>
       </c>
-      <c r="H18">
+      <c r="J18">
         <v>12219507304.67473</v>
       </c>
-      <c r="I18">
+      <c r="K18">
         <v>17291662246.53454</v>
       </c>
-      <c r="J18">
+      <c r="L18">
         <v>1611793348.769923</v>
       </c>
-      <c r="K18">
+      <c r="M18">
         <v>2626224337.141885</v>
       </c>
-      <c r="L18">
+      <c r="N18">
         <v>8058966743.849616</v>
       </c>
-      <c r="M18">
+      <c r="O18">
         <v>13131121685.70942</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:15">
       <c r="A19" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B19">
         <v>0.001481620105625933</v>
@@ -1537,33 +1651,39 @@
         <v>388900</v>
       </c>
       <c r="F19">
+        <v>1700685949.597928</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
         <v>-20345999777.86987</v>
       </c>
-      <c r="G19">
+      <c r="I19">
         <v>-21004642721.7333</v>
       </c>
-      <c r="H19">
+      <c r="J19">
         <v>-20641084228.22372</v>
       </c>
-      <c r="I19">
+      <c r="K19">
         <v>-21083565830.85334</v>
       </c>
-      <c r="J19">
+      <c r="L19">
         <v>-2733721107.222664</v>
       </c>
-      <c r="K19">
+      <c r="M19">
         <v>-2822217427.748585</v>
       </c>
-      <c r="L19">
+      <c r="N19">
         <v>-13668605536.11332</v>
       </c>
-      <c r="M19">
+      <c r="O19">
         <v>-14111087138.74294</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:15">
       <c r="A20" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B20">
         <v>0.3305610002155921</v>
@@ -1578,33 +1698,39 @@
         <v>2229922.75</v>
       </c>
       <c r="F20">
+        <v>3625845354.29923</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
         <v>12017791.46470729</v>
       </c>
-      <c r="G20">
+      <c r="I20">
         <v>33700446.06315165</v>
       </c>
-      <c r="H20">
+      <c r="J20">
         <v>7292198.627360616</v>
       </c>
-      <c r="I20">
+      <c r="K20">
         <v>21858779.57288337</v>
       </c>
-      <c r="J20">
+      <c r="L20">
         <v>1614729.703526534</v>
       </c>
-      <c r="K20">
+      <c r="M20">
         <v>4528045.892631084</v>
       </c>
-      <c r="L20">
+      <c r="N20">
         <v>8073648.517632662</v>
       </c>
-      <c r="M20">
+      <c r="O20">
         <v>22640229.46315542</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:15">
       <c r="A21" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B21">
         <v>0.1848601141168272</v>
@@ -1619,33 +1745,39 @@
         <v>9493384</v>
       </c>
       <c r="F21">
+        <v>16491907898.09357</v>
+      </c>
+      <c r="G21">
+        <v>1436245672.195966</v>
+      </c>
+      <c r="H21">
         <v>1662856.638076367</v>
       </c>
-      <c r="G21">
+      <c r="I21">
         <v>21950800.40249062</v>
       </c>
-      <c r="H21">
+      <c r="J21">
         <v>231152.1727333647</v>
       </c>
-      <c r="I21">
+      <c r="K21">
         <v>13860755.21422426</v>
       </c>
-      <c r="J21">
+      <c r="L21">
         <v>223424.0803806111</v>
       </c>
-      <c r="K21">
+      <c r="M21">
         <v>2949344.68867879</v>
       </c>
-      <c r="L21">
+      <c r="N21">
         <v>1117120.401903052</v>
       </c>
-      <c r="M21">
+      <c r="O21">
         <v>14746723.44339395</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:15">
       <c r="A22" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B22">
         <v>0.2732084640075076</v>
@@ -1660,33 +1792,39 @@
         <v>36085137</v>
       </c>
       <c r="F22">
+        <v>495997171341.8364</v>
+      </c>
+      <c r="G22">
+        <v>52563581921.39192</v>
+      </c>
+      <c r="H22">
         <v>13913075512.51971</v>
       </c>
-      <c r="G22">
+      <c r="I22">
         <v>17788183948.14333</v>
       </c>
-      <c r="H22">
+      <c r="J22">
         <v>16505120929.80205</v>
       </c>
-      <c r="I22">
+      <c r="K22">
         <v>19108449800.07052</v>
       </c>
-      <c r="J22">
+      <c r="L22">
         <v>1869383102.83123</v>
       </c>
-      <c r="K22">
+      <c r="M22">
         <v>2390048876.884926</v>
       </c>
-      <c r="L22">
+      <c r="N22">
         <v>9346915514.156151</v>
       </c>
-      <c r="M22">
+      <c r="O22">
         <v>11950244384.42462</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:15">
       <c r="A23" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B23">
         <v>0.1152854342222651</v>
@@ -1701,33 +1839,39 @@
         <v>17835239.75</v>
       </c>
       <c r="F23">
+        <v>43397909696.74773</v>
+      </c>
+      <c r="G23">
+        <v>10627264858.73001</v>
+      </c>
+      <c r="H23">
         <v>-1736500157.443669</v>
       </c>
-      <c r="G23">
+      <c r="I23">
         <v>-101298314.7835918</v>
       </c>
-      <c r="H23">
+      <c r="J23">
         <v>-1262104753.286128</v>
       </c>
-      <c r="I23">
+      <c r="K23">
         <v>-163563064.3415961</v>
       </c>
-      <c r="J23">
+      <c r="L23">
         <v>-233318941.5573778</v>
       </c>
-      <c r="K23">
+      <c r="M23">
         <v>-13610603.76847124</v>
       </c>
-      <c r="L23">
+      <c r="N23">
         <v>-1166594707.786888</v>
       </c>
-      <c r="M23">
+      <c r="O23">
         <v>-68053018.8423562</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:15">
       <c r="A24" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B24">
         <v>0.2635720909729406</v>
@@ -1742,33 +1886,39 @@
         <v>1375137500</v>
       </c>
       <c r="F24">
+        <v>2669714541701.067</v>
+      </c>
+      <c r="G24">
+        <v>434215616892.8914</v>
+      </c>
+      <c r="H24">
         <v>3057091950.216019</v>
       </c>
-      <c r="G24">
+      <c r="I24">
         <v>19182168377.30101</v>
       </c>
-      <c r="H24">
+      <c r="J24">
         <v>896583798.8108026</v>
       </c>
-      <c r="I24">
+      <c r="K24">
         <v>11729539236.13657</v>
       </c>
-      <c r="J24">
+      <c r="L24">
         <v>410755769.3043976</v>
       </c>
-      <c r="K24">
+      <c r="M24">
         <v>2577346856.769554</v>
       </c>
-      <c r="L24">
+      <c r="N24">
         <v>2053778846.521984</v>
       </c>
-      <c r="M24">
+      <c r="O24">
         <v>12886734283.84776</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:15">
       <c r="A25" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B25">
         <v>0.6926113902235932</v>
@@ -1783,33 +1933,39 @@
         <v>48434910.5</v>
       </c>
       <c r="F25">
+        <v>54317832169.73812</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
         <v>717599044.5363848</v>
       </c>
-      <c r="G25">
+      <c r="I25">
         <v>1713924257.972374</v>
       </c>
-      <c r="H25">
+      <c r="J25">
         <v>685527631.4013429</v>
       </c>
-      <c r="I25">
+      <c r="K25">
         <v>1354866886.135486</v>
       </c>
-      <c r="J25">
+      <c r="L25">
         <v>96417756.61010624</v>
       </c>
-      <c r="K25">
+      <c r="M25">
         <v>230285607.5569348</v>
       </c>
-      <c r="L25">
+      <c r="N25">
         <v>482088783.0505309</v>
       </c>
-      <c r="M25">
+      <c r="O25">
         <v>1151428037.784673</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:15">
       <c r="A26" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B26">
         <v>0.1696800597082566</v>
@@ -1824,33 +1980,39 @@
         <v>4832117.5</v>
       </c>
       <c r="F26">
+        <v>7813132536.326554</v>
+      </c>
+      <c r="G26">
+        <v>1653404469.940727</v>
+      </c>
+      <c r="H26">
         <v>25539660.44001615</v>
       </c>
-      <c r="G26">
+      <c r="I26">
         <v>1414483292.875928</v>
       </c>
-      <c r="H26">
+      <c r="J26">
         <v>-35239479.72698557</v>
       </c>
-      <c r="I26">
+      <c r="K26">
         <v>897863972.1030172</v>
       </c>
-      <c r="J26">
+      <c r="L26">
         <v>3431549.669636488</v>
       </c>
-      <c r="K26">
+      <c r="M26">
         <v>190052240.0356371</v>
       </c>
-      <c r="L26">
+      <c r="N26">
         <v>17157748.34818208</v>
       </c>
-      <c r="M26">
+      <c r="O26">
         <v>950261200.178185</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:15">
       <c r="A27" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B27">
         <v>0.05140512758335535</v>
@@ -1865,33 +2027,39 @@
         <v>0</v>
       </c>
       <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
         <v>-123660714.3853272</v>
       </c>
-      <c r="G27">
+      <c r="I27">
         <v>-143679851.2153584</v>
       </c>
-      <c r="H27">
+      <c r="J27">
         <v>-139573979.9574173</v>
       </c>
-      <c r="I27">
+      <c r="K27">
         <v>-153022996.3483838</v>
       </c>
-      <c r="J27">
+      <c r="L27">
         <v>-16615251.58459404</v>
       </c>
-      <c r="K27">
+      <c r="M27">
         <v>-19305054.86278737</v>
       </c>
-      <c r="L27">
+      <c r="N27">
         <v>-83076257.92297021</v>
       </c>
-      <c r="M27">
+      <c r="O27">
         <v>-96525274.31393678</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:15">
       <c r="A28" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B28">
         <v>0.01021498128951731</v>
@@ -1906,33 +2074,39 @@
         <v>1165742.5</v>
       </c>
       <c r="F28">
+        <v>4918777342.358389</v>
+      </c>
+      <c r="G28">
+        <v>1133445849.661561</v>
+      </c>
+      <c r="H28">
         <v>-1432995076.370641</v>
       </c>
-      <c r="G28">
+      <c r="I28">
         <v>-1438295131.608915</v>
       </c>
-      <c r="H28">
+      <c r="J28">
         <v>-1446574388.222713</v>
       </c>
-      <c r="I28">
+      <c r="K28">
         <v>-1450135007.762794</v>
       </c>
-      <c r="J28">
+      <c r="L28">
         <v>-192539512.9061928</v>
       </c>
-      <c r="K28">
+      <c r="M28">
         <v>-193251636.8142092</v>
       </c>
-      <c r="L28">
+      <c r="N28">
         <v>-962697564.5309649</v>
       </c>
-      <c r="M28">
+      <c r="O28">
         <v>-966258184.0710467</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:15">
       <c r="A29" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B29">
         <v>0.1657072661536193</v>
@@ -1947,33 +2121,39 @@
         <v>10557265.25</v>
       </c>
       <c r="F29">
+        <v>68118979753.21311</v>
+      </c>
+      <c r="G29">
+        <v>7232899630.742956</v>
+      </c>
+      <c r="H29">
         <v>274961230.6368537</v>
       </c>
-      <c r="G29">
+      <c r="I29">
         <v>1665882123.35811</v>
       </c>
-      <c r="H29">
+      <c r="J29">
         <v>161217617.1642461</v>
       </c>
-      <c r="I29">
+      <c r="K29">
         <v>1095649408.283429</v>
       </c>
-      <c r="J29">
+      <c r="L29">
         <v>36944231.20349526</v>
       </c>
-      <c r="K29">
+      <c r="M29">
         <v>223830589.4273319</v>
       </c>
-      <c r="L29">
+      <c r="N29">
         <v>184721156.0174761</v>
       </c>
-      <c r="M29">
+      <c r="O29">
         <v>1119152947.136659</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:15">
       <c r="A30" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B30">
         <v>0.3567911176518284</v>
@@ -1988,33 +2168,39 @@
         <v>81928195</v>
       </c>
       <c r="F30">
+        <v>1306253977481.738</v>
+      </c>
+      <c r="G30">
+        <v>70004185267.32045</v>
+      </c>
+      <c r="H30">
         <v>14983592364.5376</v>
       </c>
-      <c r="G30">
+      <c r="I30">
         <v>14846288079.39142</v>
       </c>
-      <c r="H30">
+      <c r="J30">
         <v>10900752902.82241</v>
       </c>
-      <c r="I30">
+      <c r="K30">
         <v>10808510784.83504</v>
       </c>
-      <c r="J30">
+      <c r="L30">
         <v>2013219461.130123</v>
       </c>
-      <c r="K30">
+      <c r="M30">
         <v>1994771037.53265</v>
       </c>
-      <c r="L30">
+      <c r="N30">
         <v>10066097305.65062</v>
       </c>
-      <c r="M30">
+      <c r="O30">
         <v>9973855187.663246</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:15">
       <c r="A31" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B31">
         <v>0.5233560154281636</v>
@@ -2029,33 +2215,39 @@
         <v>5706142.75</v>
       </c>
       <c r="F31">
+        <v>139276466440.4725</v>
+      </c>
+      <c r="G31">
+        <v>9208793855.98259</v>
+      </c>
+      <c r="H31">
         <v>394380224.4222253</v>
       </c>
-      <c r="G31">
+      <c r="I31">
         <v>455214180.8457785</v>
       </c>
-      <c r="H31">
+      <c r="J31">
         <v>304784609.3564973</v>
       </c>
-      <c r="I31">
+      <c r="K31">
         <v>345653348.3043413</v>
       </c>
-      <c r="J31">
+      <c r="L31">
         <v>52989558.41663349</v>
       </c>
-      <c r="K31">
+      <c r="M31">
         <v>61163306.20620227</v>
       </c>
-      <c r="L31">
+      <c r="N31">
         <v>264947792.0831676</v>
       </c>
-      <c r="M31">
+      <c r="O31">
         <v>305816531.0310116</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:15">
       <c r="A32" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B32">
         <v>0.1134284127311136</v>
@@ -2070,33 +2262,39 @@
         <v>10587506.75</v>
       </c>
       <c r="F32">
+        <v>9841476869.357698</v>
+      </c>
+      <c r="G32">
+        <v>1647374473.501711</v>
+      </c>
+      <c r="H32">
         <v>-204335267.1090134</v>
       </c>
-      <c r="G32">
+      <c r="I32">
         <v>350498938.657262</v>
       </c>
-      <c r="H32">
+      <c r="J32">
         <v>-186225693.9076382</v>
       </c>
-      <c r="I32">
+      <c r="K32">
         <v>186516367.3997044</v>
       </c>
-      <c r="J32">
+      <c r="L32">
         <v>-27454813.66088825</v>
       </c>
-      <c r="K32">
+      <c r="M32">
         <v>47093598.60058028</v>
       </c>
-      <c r="L32">
+      <c r="N32">
         <v>-137274068.3044412</v>
       </c>
-      <c r="M32">
+      <c r="O32">
         <v>235467993.0029013</v>
       </c>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:15">
       <c r="A33" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B33">
         <v>0.5868422406058135</v>
@@ -2111,33 +2309,39 @@
         <v>40227258.75</v>
       </c>
       <c r="F33">
+        <v>22778595737.35755</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
         <v>-1001211009.141352</v>
       </c>
-      <c r="G33">
+      <c r="I33">
         <v>-1003934558.675876</v>
       </c>
-      <c r="H33">
+      <c r="J33">
         <v>-951799681.2787348</v>
       </c>
-      <c r="I33">
+      <c r="K33">
         <v>-953629383.6601317</v>
       </c>
-      <c r="J33">
+      <c r="L33">
         <v>-134524314.2807097</v>
       </c>
-      <c r="K33">
+      <c r="M33">
         <v>-134890254.7569892</v>
       </c>
-      <c r="L33">
+      <c r="N33">
         <v>-672621571.4035491</v>
       </c>
-      <c r="M33">
+      <c r="O33">
         <v>-674451273.784946</v>
       </c>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:15">
       <c r="A34" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B34">
         <v>4.507268197059778</v>
@@ -2152,33 +2356,39 @@
         <v>16264351.5</v>
       </c>
       <c r="F34">
+        <v>13997334282.94469</v>
+      </c>
+      <c r="G34">
+        <v>1015246901.280969</v>
+      </c>
+      <c r="H34">
         <v>314919831.1870916</v>
       </c>
-      <c r="G34">
+      <c r="I34">
         <v>478229273.840582</v>
       </c>
-      <c r="H34">
+      <c r="J34">
         <v>301776613.6132683</v>
       </c>
-      <c r="I34">
+      <c r="K34">
         <v>411489204.605284</v>
       </c>
-      <c r="J34">
+      <c r="L34">
         <v>42313132.75327691</v>
       </c>
-      <c r="K34">
+      <c r="M34">
         <v>64255650.95168006</v>
       </c>
-      <c r="L34">
+      <c r="N34">
         <v>211565663.7663846</v>
       </c>
-      <c r="M34">
+      <c r="O34">
         <v>321278254.7584003</v>
       </c>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:15">
       <c r="A35" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B35">
         <v>0.2102643889941552</v>
@@ -2193,33 +2403,39 @@
         <v>1315305.5</v>
       </c>
       <c r="F35">
+        <v>7697058981.156044</v>
+      </c>
+      <c r="G35">
+        <v>361416955.3250054</v>
+      </c>
+      <c r="H35">
         <v>-6943033.855673687</v>
       </c>
-      <c r="G35">
+      <c r="I35">
         <v>64235230.95136249</v>
       </c>
-      <c r="H35">
+      <c r="J35">
         <v>-12071498.74142647</v>
       </c>
-      <c r="I35">
+      <c r="K35">
         <v>35746629.3925675</v>
       </c>
-      <c r="J35">
+      <c r="L35">
         <v>-932877.1457110344</v>
       </c>
-      <c r="K35">
+      <c r="M35">
         <v>8630748.481087759</v>
       </c>
-      <c r="L35">
+      <c r="N35">
         <v>-4664385.728555202</v>
       </c>
-      <c r="M35">
+      <c r="O35">
         <v>43153742.40543877</v>
       </c>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:15">
       <c r="A36" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B36">
         <v>1.198105386173035</v>
@@ -2234,33 +2450,39 @@
         <v>94708142.5</v>
       </c>
       <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>11105157233.4294</v>
+      </c>
+      <c r="H36">
         <v>469150401.6227778</v>
       </c>
-      <c r="G36">
+      <c r="I36">
         <v>901511196.1525279</v>
       </c>
-      <c r="H36">
+      <c r="J36">
         <v>570924603.7153362</v>
       </c>
-      <c r="I36">
+      <c r="K36">
         <v>861388046.8603468</v>
       </c>
-      <c r="J36">
+      <c r="L36">
         <v>63035799.14382821</v>
       </c>
-      <c r="K36">
+      <c r="M36">
         <v>121128487.7728302</v>
       </c>
-      <c r="L36">
+      <c r="N36">
         <v>315178995.7191408</v>
       </c>
-      <c r="M36">
+      <c r="O36">
         <v>605642438.8641511</v>
       </c>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:15">
       <c r="A37" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B37">
         <v>1.261330904214141</v>
@@ -2275,33 +2497,39 @@
         <v>46495451</v>
       </c>
       <c r="F37">
+        <v>415655347467.2473</v>
+      </c>
+      <c r="G37">
+        <v>28563666355.93319</v>
+      </c>
+      <c r="H37">
         <v>5905772358.337699</v>
       </c>
-      <c r="G37">
+      <c r="I37">
         <v>6309413417.880054</v>
       </c>
-      <c r="H37">
+      <c r="J37">
         <v>4961674935.12862</v>
       </c>
-      <c r="I37">
+      <c r="K37">
         <v>5232844230.385582</v>
       </c>
-      <c r="J37">
+      <c r="L37">
         <v>793509030.1141357</v>
       </c>
-      <c r="K37">
+      <c r="M37">
         <v>847742889.1655281</v>
       </c>
-      <c r="L37">
+      <c r="N37">
         <v>3967545150.570679</v>
       </c>
-      <c r="M37">
+      <c r="O37">
         <v>4238714445.827641</v>
       </c>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:15">
       <c r="A38" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B38">
         <v>0.001429462361566314</v>
@@ -2316,33 +2544,39 @@
         <v>0</v>
       </c>
       <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
         <v>-6837307668.770913</v>
       </c>
-      <c r="G38">
+      <c r="I38">
         <v>-7329851216.22071</v>
       </c>
-      <c r="H38">
+      <c r="J38">
         <v>-7214989996.830556</v>
       </c>
-      <c r="I38">
+      <c r="K38">
         <v>-7545884695.19637</v>
       </c>
-      <c r="J38">
+      <c r="L38">
         <v>-918671605.9549332</v>
       </c>
-      <c r="K38">
+      <c r="M38">
         <v>-984850545.6280957</v>
       </c>
-      <c r="L38">
+      <c r="N38">
         <v>-4593358029.774667</v>
       </c>
-      <c r="M38">
+      <c r="O38">
         <v>-4924252728.140481</v>
       </c>
     </row>
-    <row r="39" spans="1:13">
+    <row r="39" spans="1:15">
       <c r="A39" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B39">
         <v>0.1270732915691374</v>
@@ -2357,33 +2591,39 @@
         <v>5486912.25</v>
       </c>
       <c r="F39">
+        <v>103462881215.5806</v>
+      </c>
+      <c r="G39">
+        <v>6534284466.24057</v>
+      </c>
+      <c r="H39">
         <v>21487890.06904256</v>
       </c>
-      <c r="G39">
+      <c r="I39">
         <v>60735280.12908983</v>
       </c>
-      <c r="H39">
+      <c r="J39">
         <v>26387833.00092363</v>
       </c>
-      <c r="I39">
+      <c r="K39">
         <v>52754543.84873653</v>
       </c>
-      <c r="J39">
+      <c r="L39">
         <v>2887147.315086245</v>
       </c>
-      <c r="K39">
+      <c r="M39">
         <v>8160489.484648824</v>
       </c>
-      <c r="L39">
+      <c r="N39">
         <v>14435736.57543123</v>
       </c>
-      <c r="M39">
+      <c r="O39">
         <v>40802447.423244</v>
       </c>
     </row>
-    <row r="40" spans="1:13">
+    <row r="40" spans="1:15">
       <c r="A40" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B40">
         <v>0.182619173558908</v>
@@ -2398,33 +2638,39 @@
         <v>895554.25</v>
       </c>
       <c r="F40">
+        <v>1261625587.410089</v>
+      </c>
+      <c r="G40">
+        <v>206282623.6744426</v>
+      </c>
+      <c r="H40">
         <v>11417088.78594299</v>
       </c>
-      <c r="G40">
+      <c r="I40">
         <v>59369701.90476929</v>
       </c>
-      <c r="H40">
+      <c r="J40">
         <v>25162098.26563697</v>
       </c>
-      <c r="I40">
+      <c r="K40">
         <v>57377047.65632802</v>
       </c>
-      <c r="J40">
+      <c r="L40">
         <v>1534018.329790585</v>
       </c>
-      <c r="K40">
+      <c r="M40">
         <v>7977008.207928795</v>
       </c>
-      <c r="L40">
+      <c r="N40">
         <v>7670091.648952916</v>
       </c>
-      <c r="M40">
+      <c r="O40">
         <v>39885041.03964397</v>
       </c>
     </row>
-    <row r="41" spans="1:13">
+    <row r="41" spans="1:15">
       <c r="A41" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B41">
         <v>0.4691004962934454</v>
@@ -2439,33 +2685,39 @@
         <v>66721968.5</v>
       </c>
       <c r="F41">
+        <v>1140278490929.481</v>
+      </c>
+      <c r="G41">
+        <v>57843670218.60881</v>
+      </c>
+      <c r="H41">
         <v>9091890799.034828</v>
       </c>
-      <c r="G41">
+      <c r="I41">
         <v>10132182478.42711</v>
       </c>
-      <c r="H41">
+      <c r="J41">
         <v>7460354891.014883</v>
       </c>
-      <c r="I41">
+      <c r="K41">
         <v>8159231169.56376</v>
       </c>
-      <c r="J41">
+      <c r="L41">
         <v>1221601005.270787</v>
       </c>
-      <c r="K41">
+      <c r="M41">
         <v>1361376260.980562</v>
       </c>
-      <c r="L41">
+      <c r="N41">
         <v>6108005026.353935</v>
       </c>
-      <c r="M41">
+      <c r="O41">
         <v>6806881304.902811</v>
       </c>
     </row>
-    <row r="42" spans="1:13">
+    <row r="42" spans="1:15">
       <c r="A42" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B42">
         <v>0.1870761118100804</v>
@@ -2480,33 +2732,39 @@
         <v>65339964.75</v>
       </c>
       <c r="F42">
+        <v>881016914419.2806</v>
+      </c>
+      <c r="G42">
+        <v>74902123749.16447</v>
+      </c>
+      <c r="H42">
         <v>16715412667.47427</v>
       </c>
-      <c r="G42">
+      <c r="I42">
         <v>19214343323.02273</v>
       </c>
-      <c r="H42">
+      <c r="J42">
         <v>16620105783.40352</v>
       </c>
-      <c r="I42">
+      <c r="K42">
         <v>18298907403.65839</v>
       </c>
-      <c r="J42">
+      <c r="L42">
         <v>2245909609.94278</v>
       </c>
-      <c r="K42">
+      <c r="M42">
         <v>2581669933.993752</v>
       </c>
-      <c r="L42">
+      <c r="N42">
         <v>11229548049.71387</v>
       </c>
-      <c r="M42">
+      <c r="O42">
         <v>12908349669.96874</v>
       </c>
     </row>
-    <row r="43" spans="1:13">
+    <row r="43" spans="1:15">
       <c r="A43" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B43">
         <v>0.03179971778383467</v>
@@ -2521,33 +2779,39 @@
         <v>3720125</v>
       </c>
       <c r="F43">
+        <v>3702582423.970196</v>
+      </c>
+      <c r="G43">
+        <v>286471265.8863319</v>
+      </c>
+      <c r="H43">
         <v>-14089502.93843465</v>
       </c>
-      <c r="G43">
+      <c r="I43">
         <v>-10062051.99891303</v>
       </c>
-      <c r="H43">
+      <c r="J43">
         <v>-18831285.3671041</v>
       </c>
-      <c r="I43">
+      <c r="K43">
         <v>-16125611.58309831</v>
       </c>
-      <c r="J43">
+      <c r="L43">
         <v>-1893088.174264543</v>
       </c>
-      <c r="K43">
+      <c r="M43">
         <v>-1351953.417463389</v>
       </c>
-      <c r="L43">
+      <c r="N43">
         <v>-9465440.871322727</v>
       </c>
-      <c r="M43">
+      <c r="O43">
         <v>-6759767.087316949</v>
       </c>
     </row>
-    <row r="44" spans="1:13">
+    <row r="44" spans="1:15">
       <c r="A44" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B44">
         <v>0.02920343921703672</v>
@@ -2562,33 +2826,39 @@
         <v>63026</v>
       </c>
       <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
         <v>-190425081.3167606</v>
       </c>
-      <c r="G44">
+      <c r="I44">
         <v>-173994816.2875481</v>
       </c>
-      <c r="H44">
+      <c r="J44">
         <v>-166565231.6933683</v>
       </c>
-      <c r="I44">
+      <c r="K44">
         <v>-155527248.1098643</v>
       </c>
-      <c r="J44">
+      <c r="L44">
         <v>-25585818.82549897</v>
       </c>
-      <c r="K44">
+      <c r="M44">
         <v>-23378222.10879818</v>
       </c>
-      <c r="L44">
+      <c r="N44">
         <v>-127929094.1274948</v>
       </c>
-      <c r="M44">
+      <c r="O44">
         <v>-116891110.5439908</v>
       </c>
     </row>
-    <row r="45" spans="1:13">
+    <row r="45" spans="1:15">
       <c r="A45" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B45">
         <v>0.4895231132881281</v>
@@ -2603,33 +2873,39 @@
         <v>1198498</v>
       </c>
       <c r="F45">
+        <v>603079805.3765075</v>
+      </c>
+      <c r="G45">
+        <v>308035640.2218897</v>
+      </c>
+      <c r="H45">
         <v>-225674526.9158646</v>
       </c>
-      <c r="G45">
+      <c r="I45">
         <v>-288113478.5941011</v>
       </c>
-      <c r="H45">
+      <c r="J45">
         <v>-40488591.21778494</v>
       </c>
-      <c r="I45">
+      <c r="K45">
         <v>-82435578.82694376</v>
       </c>
-      <c r="J45">
+      <c r="L45">
         <v>-30321990.77596653</v>
       </c>
-      <c r="K45">
+      <c r="M45">
         <v>-38711388.29779828</v>
       </c>
-      <c r="L45">
+      <c r="N45">
         <v>-151609953.8798329</v>
       </c>
-      <c r="M45">
+      <c r="O45">
         <v>-193556941.4889917</v>
       </c>
     </row>
-    <row r="46" spans="1:13">
+    <row r="46" spans="1:15">
       <c r="A46" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B46">
         <v>0.3168591219452894</v>
@@ -2644,33 +2920,39 @@
         <v>10812422</v>
       </c>
       <c r="F46">
+        <v>74878918912.15085</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
         <v>110015479.7431012</v>
       </c>
-      <c r="G46">
+      <c r="I46">
         <v>255364253.5000833</v>
       </c>
-      <c r="H46">
+      <c r="J46">
         <v>35003308.06721449</v>
       </c>
-      <c r="I46">
+      <c r="K46">
         <v>132649777.9056196</v>
       </c>
-      <c r="J46">
+      <c r="L46">
         <v>14781856.00994981</v>
       </c>
-      <c r="K46">
+      <c r="M46">
         <v>34311149.97763085</v>
       </c>
-      <c r="L46">
+      <c r="N46">
         <v>73909280.04974902</v>
       </c>
-      <c r="M46">
+      <c r="O46">
         <v>171555749.8881541</v>
       </c>
     </row>
-    <row r="47" spans="1:13">
+    <row r="47" spans="1:15">
       <c r="A47" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B47">
         <v>2.534325418380812</v>
@@ -2685,33 +2967,39 @@
         <v>16417990</v>
       </c>
       <c r="F47">
+        <v>7414246639.670252</v>
+      </c>
+      <c r="G47">
+        <v>2436431034.642188</v>
+      </c>
+      <c r="H47">
         <v>323635370.3437985</v>
       </c>
-      <c r="G47">
+      <c r="I47">
         <v>780539965.9100728</v>
       </c>
-      <c r="H47">
+      <c r="J47">
         <v>283002950.2869745</v>
       </c>
-      <c r="I47">
+      <c r="K47">
         <v>589955115.4602822</v>
       </c>
-      <c r="J47">
+      <c r="L47">
         <v>43484166.54928778</v>
       </c>
-      <c r="K47">
+      <c r="M47">
         <v>104874599.5839493</v>
       </c>
-      <c r="L47">
+      <c r="N47">
         <v>217420832.7464389</v>
       </c>
-      <c r="M47">
+      <c r="O47">
         <v>524372997.9197466</v>
       </c>
     </row>
-    <row r="48" spans="1:13">
+    <row r="48" spans="1:15">
       <c r="A48" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B48">
         <v>0.2459453713445875</v>
@@ -2726,33 +3014,39 @@
         <v>162472.25</v>
       </c>
       <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
         <v>-4827599.005739957</v>
       </c>
-      <c r="G48">
+      <c r="I48">
         <v>-9812160.77483511</v>
       </c>
-      <c r="H48">
+      <c r="J48">
         <v>-16873148.20297159</v>
       </c>
-      <c r="I48">
+      <c r="K48">
         <v>-20221816.70469148</v>
       </c>
-      <c r="J48">
+      <c r="L48">
         <v>-648643.9321380854</v>
       </c>
-      <c r="K48">
+      <c r="M48">
         <v>-1318377.632482067</v>
       </c>
-      <c r="L48">
+      <c r="N48">
         <v>-3243219.660690516</v>
       </c>
-      <c r="M48">
+      <c r="O48">
         <v>-6591888.162410407</v>
       </c>
     </row>
-    <row r="49" spans="1:13">
+    <row r="49" spans="1:15">
       <c r="A49" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B49">
         <v>0.1631121327213523</v>
@@ -2767,33 +3061,39 @@
         <v>7312275</v>
       </c>
       <c r="F49">
+        <v>43559381238.4065</v>
+      </c>
+      <c r="G49">
+        <v>17869524335.30607</v>
+      </c>
+      <c r="H49">
         <v>2342695115.304264</v>
       </c>
-      <c r="G49">
+      <c r="I49">
         <v>-1487470610.403511</v>
       </c>
-      <c r="H49">
+      <c r="J49">
         <v>-863801169.2540226</v>
       </c>
-      <c r="I49">
+      <c r="K49">
         <v>-3436937167.200144</v>
       </c>
-      <c r="J49">
+      <c r="L49">
         <v>314768266.706686</v>
       </c>
-      <c r="K49">
+      <c r="M49">
         <v>-199858932.8825397</v>
       </c>
-      <c r="L49">
+      <c r="N49">
         <v>1573841333.533424</v>
       </c>
-      <c r="M49">
+      <c r="O49">
         <v>-999294664.4126967</v>
       </c>
     </row>
-    <row r="50" spans="1:13">
+    <row r="50" spans="1:15">
       <c r="A50" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B50">
         <v>0.3527272633555201</v>
@@ -2808,33 +3108,39 @@
         <v>9036994.75</v>
       </c>
       <c r="F50">
+        <v>4368900443.186634</v>
+      </c>
+      <c r="G50">
+        <v>731894567.9101902</v>
+      </c>
+      <c r="H50">
         <v>178128712.266596</v>
       </c>
-      <c r="G50">
+      <c r="I50">
         <v>1444745800.260205</v>
       </c>
-      <c r="H50">
+      <c r="J50">
         <v>135159613.2284926</v>
       </c>
-      <c r="I50">
+      <c r="K50">
         <v>986083113.1843027</v>
       </c>
-      <c r="J50">
+      <c r="L50">
         <v>23933658.99154491</v>
       </c>
-      <c r="K50">
+      <c r="M50">
         <v>194118358.982707</v>
       </c>
-      <c r="L50">
+      <c r="N50">
         <v>119668294.9577246</v>
       </c>
-      <c r="M50">
+      <c r="O50">
         <v>970591794.9135345</v>
       </c>
     </row>
-    <row r="51" spans="1:13">
+    <row r="51" spans="1:15">
       <c r="A51" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B51">
         <v>0.2107511226836432</v>
@@ -2849,33 +3155,39 @@
         <v>4185510.5</v>
       </c>
       <c r="F51">
+        <v>18056223502.80032</v>
+      </c>
+      <c r="G51">
+        <v>876216512.2493358</v>
+      </c>
+      <c r="H51">
         <v>-15292722.75303091</v>
       </c>
-      <c r="G51">
+      <c r="I51">
         <v>52060094.74307506</v>
       </c>
-      <c r="H51">
+      <c r="J51">
         <v>-18702147.23138044</v>
       </c>
-      <c r="I51">
+      <c r="K51">
         <v>26546014.77348953</v>
       </c>
-      <c r="J51">
+      <c r="L51">
         <v>-2054754.715093285</v>
       </c>
-      <c r="K51">
+      <c r="M51">
         <v>6994877.685880722</v>
       </c>
-      <c r="L51">
+      <c r="N51">
         <v>-10273773.57546639</v>
       </c>
-      <c r="M51">
+      <c r="O51">
         <v>34974388.42940357</v>
       </c>
     </row>
-    <row r="52" spans="1:13">
+    <row r="52" spans="1:15">
       <c r="A52" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B52">
         <v>0.2119778536923761</v>
@@ -2890,33 +3202,39 @@
         <v>9826161.5</v>
       </c>
       <c r="F52">
+        <v>48481519860.35867</v>
+      </c>
+      <c r="G52">
+        <v>2395343498.338683</v>
+      </c>
+      <c r="H52">
         <v>-4208440824.207554</v>
       </c>
-      <c r="G52">
+      <c r="I52">
         <v>-3304431226.334709</v>
       </c>
-      <c r="H52">
+      <c r="J52">
         <v>-4495931522.97014</v>
       </c>
-      <c r="I52">
+      <c r="K52">
         <v>-3888610637.828655</v>
       </c>
-      <c r="J52">
+      <c r="L52">
         <v>-565452847.5001402</v>
       </c>
-      <c r="K52">
+      <c r="M52">
         <v>-443988670.4718437</v>
       </c>
-      <c r="L52">
+      <c r="N52">
         <v>-2827264237.5007</v>
       </c>
-      <c r="M52">
+      <c r="O52">
         <v>-2219943352.359217</v>
       </c>
     </row>
-    <row r="53" spans="1:13">
+    <row r="53" spans="1:15">
       <c r="A53" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B53">
         <v>0.294768796409911</v>
@@ -2931,33 +3249,39 @@
         <v>259600016</v>
       </c>
       <c r="F53">
+        <v>92118038247.22937</v>
+      </c>
+      <c r="G53">
+        <v>35769714392.45492</v>
+      </c>
+      <c r="H53">
         <v>-1739809184.641517</v>
       </c>
-      <c r="G53">
+      <c r="I53">
         <v>-772425323.4049039</v>
       </c>
-      <c r="H53">
+      <c r="J53">
         <v>-778546034.4595728</v>
       </c>
-      <c r="I53">
+      <c r="K53">
         <v>-128649811.8307028</v>
       </c>
-      <c r="J53">
+      <c r="L53">
         <v>-233763547.7499409</v>
       </c>
-      <c r="K53">
+      <c r="M53">
         <v>-103784303.2241669</v>
       </c>
-      <c r="L53">
+      <c r="N53">
         <v>-1168817738.749704</v>
       </c>
-      <c r="M53">
+      <c r="O53">
         <v>-518921516.1208344</v>
       </c>
     </row>
-    <row r="54" spans="1:13">
+    <row r="54" spans="1:15">
       <c r="A54" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B54">
         <v>0.1363884680781818</v>
@@ -2972,33 +3296,39 @@
         <v>4732160</v>
       </c>
       <c r="F54">
+        <v>69641425049.92018</v>
+      </c>
+      <c r="G54">
+        <v>8500134030.786361</v>
+      </c>
+      <c r="H54">
         <v>-1105421552.403492</v>
       </c>
-      <c r="G54">
+      <c r="I54">
         <v>-13460793151.08862</v>
       </c>
-      <c r="H54">
+      <c r="J54">
         <v>-5056514874.846107</v>
       </c>
-      <c r="I54">
+      <c r="K54">
         <v>-13356952429.07308</v>
       </c>
-      <c r="J54">
+      <c r="L54">
         <v>-148526209.730484</v>
       </c>
-      <c r="K54">
+      <c r="M54">
         <v>-1808613720.575878</v>
       </c>
-      <c r="L54">
+      <c r="N54">
         <v>-742631048.65242</v>
       </c>
-      <c r="M54">
+      <c r="O54">
         <v>-9043068602.879395</v>
       </c>
     </row>
-    <row r="55" spans="1:13">
+    <row r="55" spans="1:15">
       <c r="A55" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B55">
         <v>0.2898440760060395</v>
@@ -3013,33 +3343,39 @@
         <v>8463550</v>
       </c>
       <c r="F55">
+        <v>103289811942.907</v>
+      </c>
+      <c r="G55">
+        <v>10472158076.76882</v>
+      </c>
+      <c r="H55">
         <v>-1060390215.36824</v>
       </c>
-      <c r="G55">
+      <c r="I55">
         <v>-641268318.4699745</v>
       </c>
-      <c r="H55">
+      <c r="J55">
         <v>-930467898.0781232</v>
       </c>
-      <c r="I55">
+      <c r="K55">
         <v>-648898452.3494787</v>
       </c>
-      <c r="J55">
+      <c r="L55">
         <v>-142475727.1843457</v>
       </c>
-      <c r="K55">
+      <c r="M55">
         <v>-86161838.03861666</v>
       </c>
-      <c r="L55">
+      <c r="N55">
         <v>-712378635.9217281</v>
       </c>
-      <c r="M55">
+      <c r="O55">
         <v>-430809190.1930833</v>
       </c>
     </row>
-    <row r="56" spans="1:13">
+    <row r="56" spans="1:15">
       <c r="A56" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B56">
         <v>0.3392858462128337</v>
@@ -3054,33 +3390,39 @@
         <v>1316566188.75</v>
       </c>
       <c r="F56">
+        <v>399582448671.4861</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
         <v>-4920972463.299737</v>
       </c>
-      <c r="G56">
+      <c r="I56">
         <v>21167402551.54865</v>
       </c>
-      <c r="H56">
+      <c r="J56">
         <v>-5547512982.671318</v>
       </c>
-      <c r="I56">
+      <c r="K56">
         <v>11978866209.76424</v>
       </c>
-      <c r="J56">
+      <c r="L56">
         <v>-661189739.4010696</v>
       </c>
-      <c r="K56">
+      <c r="M56">
         <v>2844086099.08604</v>
       </c>
-      <c r="L56">
+      <c r="N56">
         <v>-3305948697.005346</v>
       </c>
-      <c r="M56">
+      <c r="O56">
         <v>14220430495.43021</v>
       </c>
     </row>
-    <row r="57" spans="1:13">
+    <row r="57" spans="1:15">
       <c r="A57" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B57">
         <v>0.4538924418798343</v>
@@ -3095,33 +3437,39 @@
         <v>60674659</v>
       </c>
       <c r="F57">
+        <v>785093710222.7733</v>
+      </c>
+      <c r="G57">
+        <v>38868557922.75883</v>
+      </c>
+      <c r="H57">
         <v>4333975550.048867</v>
       </c>
-      <c r="G57">
+      <c r="I57">
         <v>4529477415.206192</v>
       </c>
-      <c r="H57">
+      <c r="J57">
         <v>3387873458.553978</v>
       </c>
-      <c r="I57">
+      <c r="K57">
         <v>3519213176.709114</v>
       </c>
-      <c r="J57">
+      <c r="L57">
         <v>582319894.2645407</v>
       </c>
-      <c r="K57">
+      <c r="M57">
         <v>608587837.8955679</v>
       </c>
-      <c r="L57">
+      <c r="N57">
         <v>2911599471.322701</v>
       </c>
-      <c r="M57">
+      <c r="O57">
         <v>3042939189.477838</v>
       </c>
     </row>
-    <row r="58" spans="1:13">
+    <row r="58" spans="1:15">
       <c r="A58" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B58">
         <v>0.1881317763475457</v>
@@ -3136,33 +3484,39 @@
         <v>164145.5</v>
       </c>
       <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
         <v>114374185.9825161</v>
       </c>
-      <c r="G58">
+      <c r="I58">
         <v>24478092.09571325</v>
       </c>
-      <c r="H58">
+      <c r="J58">
         <v>269251515.6556731</v>
       </c>
-      <c r="I58">
+      <c r="K58">
         <v>208858600.0953073</v>
       </c>
-      <c r="J58">
+      <c r="L58">
         <v>15367498.75923521</v>
       </c>
-      <c r="K58">
+      <c r="M58">
         <v>3288915.64716205</v>
       </c>
-      <c r="L58">
+      <c r="N58">
         <v>76837493.79617599</v>
       </c>
-      <c r="M58">
+      <c r="O58">
         <v>16444578.23581019</v>
       </c>
     </row>
-    <row r="59" spans="1:13">
+    <row r="59" spans="1:15">
       <c r="A59" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B59">
         <v>0.2116892168852285</v>
@@ -3177,33 +3531,39 @@
         <v>2876418.75</v>
       </c>
       <c r="F59">
+        <v>3610863626.732725</v>
+      </c>
+      <c r="G59">
+        <v>453137723.1855795</v>
+      </c>
+      <c r="H59">
         <v>-26366865.247824</v>
       </c>
-      <c r="G59">
+      <c r="I59">
         <v>180599060.4025556</v>
       </c>
-      <c r="H59">
+      <c r="J59">
         <v>-31020416.86899749</v>
       </c>
-      <c r="I59">
+      <c r="K59">
         <v>108020948.9039738</v>
       </c>
-      <c r="J59">
+      <c r="L59">
         <v>-3542694.232095309</v>
       </c>
-      <c r="K59">
+      <c r="M59">
         <v>24265578.92249894</v>
       </c>
-      <c r="L59">
+      <c r="N59">
         <v>-17713471.16047659</v>
       </c>
-      <c r="M59">
+      <c r="O59">
         <v>121327894.6124947</v>
       </c>
     </row>
-    <row r="60" spans="1:13">
+    <row r="60" spans="1:15">
       <c r="A60" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B60">
         <v>0.0521518084924196</v>
@@ -3218,33 +3578,39 @@
         <v>9281690.75</v>
       </c>
       <c r="F60">
+        <v>5832398854.790161</v>
+      </c>
+      <c r="G60">
+        <v>994543936.615576</v>
+      </c>
+      <c r="H60">
         <v>-136447947.2938463</v>
       </c>
-      <c r="G60">
+      <c r="I60">
         <v>-129691568.8946411</v>
       </c>
-      <c r="H60">
+      <c r="J60">
         <v>-101293977.1756436</v>
       </c>
-      <c r="I60">
+      <c r="K60">
         <v>-96754988.07706404</v>
       </c>
-      <c r="J60">
+      <c r="L60">
         <v>-18333364.67250496</v>
       </c>
-      <c r="K60">
+      <c r="M60">
         <v>-17425566.85278904</v>
       </c>
-      <c r="L60">
+      <c r="N60">
         <v>-91666823.36252478</v>
       </c>
-      <c r="M60">
+      <c r="O60">
         <v>-87127834.26394522</v>
       </c>
     </row>
-    <row r="61" spans="1:13">
+    <row r="61" spans="1:15">
       <c r="A61" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B61">
         <v>0.2562328189538541</v>
@@ -3259,33 +3625,39 @@
         <v>127049327</v>
       </c>
       <c r="F61">
+        <v>1583945537084.176</v>
+      </c>
+      <c r="G61">
+        <v>222513048778.0717</v>
+      </c>
+      <c r="H61">
         <v>-8102496301.667587</v>
       </c>
-      <c r="G61">
+      <c r="I61">
         <v>-9015890005.953884</v>
       </c>
-      <c r="H61">
+      <c r="J61">
         <v>-11410516072.72013</v>
       </c>
-      <c r="I61">
+      <c r="K61">
         <v>-12024141275.67714</v>
       </c>
-      <c r="J61">
+      <c r="L61">
         <v>-1088664376.432095</v>
       </c>
-      <c r="K61">
+      <c r="M61">
         <v>-1211389417.023499</v>
       </c>
-      <c r="L61">
+      <c r="N61">
         <v>-5443321882.160478</v>
       </c>
-      <c r="M61">
+      <c r="O61">
         <v>-6056947085.117493</v>
       </c>
     </row>
-    <row r="62" spans="1:13">
+    <row r="62" spans="1:15">
       <c r="A62" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B62">
         <v>2.613787747665656</v>
@@ -3300,33 +3672,39 @@
         <v>47855484.5</v>
       </c>
       <c r="F62">
+        <v>10989048500.8325</v>
+      </c>
+      <c r="G62">
+        <v>2481386396.879453</v>
+      </c>
+      <c r="H62">
         <v>72745188.14954047</v>
       </c>
-      <c r="G62">
+      <c r="I62">
         <v>111644291.9714486</v>
       </c>
-      <c r="H62">
+      <c r="J62">
         <v>63601140.80952729</v>
       </c>
-      <c r="I62">
+      <c r="K62">
         <v>89733870.17425972</v>
       </c>
-      <c r="J62">
+      <c r="L62">
         <v>9774159.955982413</v>
       </c>
-      <c r="K62">
+      <c r="M62">
         <v>15000705.8289289</v>
       </c>
-      <c r="L62">
+      <c r="N62">
         <v>48870799.77991207</v>
       </c>
-      <c r="M62">
+      <c r="O62">
         <v>75003529.14464451</v>
       </c>
     </row>
-    <row r="63" spans="1:13">
+    <row r="63" spans="1:15">
       <c r="A63" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B63">
         <v>0.2387805447697462</v>
@@ -3341,33 +3719,39 @@
         <v>15639042</v>
       </c>
       <c r="F63">
+        <v>3180057034.950613</v>
+      </c>
+      <c r="G63">
+        <v>620313116.6581955</v>
+      </c>
+      <c r="H63">
         <v>1258905.468983296</v>
       </c>
-      <c r="G63">
+      <c r="I63">
         <v>43732792.70277807</v>
       </c>
-      <c r="H63">
+      <c r="J63">
         <v>12636322.76439472</v>
       </c>
-      <c r="I63">
+      <c r="K63">
         <v>41170620.24411689</v>
       </c>
-      <c r="J63">
+      <c r="L63">
         <v>169148.5545134545</v>
       </c>
-      <c r="K63">
+      <c r="M63">
         <v>5876008.050457887</v>
       </c>
-      <c r="L63">
+      <c r="N63">
         <v>845742.7725672536</v>
       </c>
-      <c r="M63">
+      <c r="O63">
         <v>29380040.25228943</v>
       </c>
     </row>
-    <row r="64" spans="1:13">
+    <row r="64" spans="1:15">
       <c r="A64" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B64">
         <v>0.07143822361100609</v>
@@ -3382,33 +3766,39 @@
         <v>54548.25</v>
       </c>
       <c r="F64">
+        <v>167004107.5429425</v>
+      </c>
+      <c r="G64">
+        <v>22886482.44958925</v>
+      </c>
+      <c r="H64">
         <v>-49959291.686656</v>
       </c>
-      <c r="G64">
+      <c r="I64">
         <v>-34450756.08912115</v>
       </c>
-      <c r="H64">
+      <c r="J64">
         <v>-34701807.94341759</v>
       </c>
-      <c r="I64">
+      <c r="K64">
         <v>-24283049.57126605</v>
       </c>
-      <c r="J64">
+      <c r="L64">
         <v>-6712610.423512152</v>
       </c>
-      <c r="K64">
+      <c r="M64">
         <v>-4628858.749081844</v>
       </c>
-      <c r="L64">
+      <c r="N64">
         <v>-33563052.11756077</v>
       </c>
-      <c r="M64">
+      <c r="O64">
         <v>-23144293.74540922</v>
       </c>
     </row>
-    <row r="65" spans="1:13">
+    <row r="65" spans="1:15">
       <c r="A65" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B65">
         <v>0.3068939985094956</v>
@@ -3423,33 +3813,39 @@
         <v>51118378.5</v>
       </c>
       <c r="F65">
+        <v>379564407726.6359</v>
+      </c>
+      <c r="G65">
+        <v>54063077465.50417</v>
+      </c>
+      <c r="H65">
         <v>381505510.2747584</v>
       </c>
-      <c r="G65">
+      <c r="I65">
         <v>856092711.427702</v>
       </c>
-      <c r="H65">
+      <c r="J65">
         <v>87709314.85514641</v>
       </c>
-      <c r="I65">
+      <c r="K65">
         <v>406540796.0244055</v>
       </c>
-      <c r="J65">
+      <c r="L65">
         <v>51259691.20938682</v>
       </c>
-      <c r="K65">
+      <c r="M65">
         <v>115025987.4432383</v>
       </c>
-      <c r="L65">
+      <c r="N65">
         <v>256298456.0469341</v>
       </c>
-      <c r="M65">
+      <c r="O65">
         <v>575129937.2161922</v>
       </c>
     </row>
-    <row r="66" spans="1:13">
+    <row r="66" spans="1:15">
       <c r="A66" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B66">
         <v>0.1992611222189326</v>
@@ -3464,33 +3860,39 @@
         <v>3976839</v>
       </c>
       <c r="F66">
+        <v>1834582609.415073</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66">
         <v>-44565156.55579743</v>
       </c>
-      <c r="G66">
+      <c r="I66">
         <v>-32855912.48919928</v>
       </c>
-      <c r="H66">
+      <c r="J66">
         <v>-54967725.32359353</v>
       </c>
-      <c r="I66">
+      <c r="K66">
         <v>-47101361.41816926</v>
       </c>
-      <c r="J66">
+      <c r="L66">
         <v>-5987845.790491849</v>
       </c>
-      <c r="K66">
+      <c r="M66">
         <v>-4414573.009406984</v>
       </c>
-      <c r="L66">
+      <c r="N66">
         <v>-29939228.95245919</v>
       </c>
-      <c r="M66">
+      <c r="O66">
         <v>-22072865.04703492</v>
       </c>
     </row>
-    <row r="67" spans="1:13">
+    <row r="67" spans="1:15">
       <c r="A67" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B67">
         <v>0.003561943940379805</v>
@@ -3505,33 +3907,39 @@
         <v>60364.75</v>
       </c>
       <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67">
         <v>-19430790151.32596</v>
       </c>
-      <c r="G67">
+      <c r="I67">
         <v>-21530649699.25582</v>
       </c>
-      <c r="H67">
+      <c r="J67">
         <v>-20318518807.06081</v>
       </c>
-      <c r="I67">
+      <c r="K67">
         <v>-21729221262.34707</v>
       </c>
-      <c r="J67">
+      <c r="L67">
         <v>-2610752076.409157</v>
       </c>
-      <c r="K67">
+      <c r="M67">
         <v>-2892892567.466404</v>
       </c>
-      <c r="L67">
+      <c r="N67">
         <v>-13053760382.04579</v>
       </c>
-      <c r="M67">
+      <c r="O67">
         <v>-14464462837.33204</v>
       </c>
     </row>
-    <row r="68" spans="1:13">
+    <row r="68" spans="1:15">
       <c r="A68" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B68">
         <v>0.3736880925013732</v>
@@ -3546,33 +3954,39 @@
         <v>17665698</v>
       </c>
       <c r="F68">
+        <v>22181808348.12268</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68">
         <v>-339817453.3987556</v>
       </c>
-      <c r="G68">
+      <c r="I68">
         <v>-296413679.344798</v>
       </c>
-      <c r="H68">
+      <c r="J68">
         <v>543492837.5779108</v>
       </c>
-      <c r="I68">
+      <c r="K68">
         <v>572651840.467876</v>
       </c>
-      <c r="J68">
+      <c r="L68">
         <v>-45658417.13855016</v>
       </c>
-      <c r="K68">
+      <c r="M68">
         <v>-39826616.56055713</v>
       </c>
-      <c r="L68">
+      <c r="N68">
         <v>-228292085.6927509</v>
       </c>
-      <c r="M68">
+      <c r="O68">
         <v>-199133082.8027859</v>
       </c>
     </row>
-    <row r="69" spans="1:13">
+    <row r="69" spans="1:15">
       <c r="A69" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B69">
         <v>0.1428837294172986</v>
@@ -3587,33 +4001,39 @@
         <v>5885945.75</v>
       </c>
       <c r="F69">
+        <v>7704382071.825423</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69">
         <v>-34991360.74106698</v>
       </c>
-      <c r="G69">
+      <c r="I69">
         <v>-26809330.0083012</v>
       </c>
-      <c r="H69">
+      <c r="J69">
         <v>-42667977.42294091</v>
       </c>
-      <c r="I69">
+      <c r="K69">
         <v>-37171223.67323452</v>
       </c>
-      <c r="J69">
+      <c r="L69">
         <v>-4701495.255708292</v>
       </c>
-      <c r="K69">
+      <c r="M69">
         <v>-3602144.505767018</v>
       </c>
-      <c r="L69">
+      <c r="N69">
         <v>-23507476.27854149</v>
       </c>
-      <c r="M69">
+      <c r="O69">
         <v>-18010722.52883509</v>
       </c>
     </row>
-    <row r="70" spans="1:13">
+    <row r="70" spans="1:15">
       <c r="A70" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B70">
         <v>0.01908654605389848</v>
@@ -3628,33 +4048,39 @@
         <v>177621.5</v>
       </c>
       <c r="F70">
+        <v>342990005.1519836</v>
+      </c>
+      <c r="G70">
+        <v>34070453.3745492</v>
+      </c>
+      <c r="H70">
         <v>-45387708.77183058</v>
       </c>
-      <c r="G70">
+      <c r="I70">
         <v>-43104980.99920306</v>
       </c>
-      <c r="H70">
+      <c r="J70">
         <v>-35506930.43663247</v>
       </c>
-      <c r="I70">
+      <c r="K70">
         <v>-33973375.64399387</v>
       </c>
-      <c r="J70">
+      <c r="L70">
         <v>-6098365.223270386</v>
       </c>
-      <c r="K70">
+      <c r="M70">
         <v>-5791654.264742665</v>
       </c>
-      <c r="L70">
+      <c r="N70">
         <v>-30491826.11635191</v>
       </c>
-      <c r="M70">
+      <c r="O70">
         <v>-28958271.32371331</v>
       </c>
     </row>
-    <row r="71" spans="1:13">
+    <row r="71" spans="1:15">
       <c r="A71" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B71">
         <v>0.1877638499118782</v>
@@ -3669,33 +4095,39 @@
         <v>21096000</v>
       </c>
       <c r="F71">
+        <v>10295289857.28315</v>
+      </c>
+      <c r="G71">
+        <v>1079873612.750378</v>
+      </c>
+      <c r="H71">
         <v>-2065398.216992617</v>
       </c>
-      <c r="G71">
+      <c r="I71">
         <v>56547498.28291969</v>
       </c>
-      <c r="H71">
+      <c r="J71">
         <v>-15373185.25648285</v>
       </c>
-      <c r="I71">
+      <c r="K71">
         <v>24003427.8533702</v>
       </c>
-      <c r="J71">
+      <c r="L71">
         <v>-277510.2114546373</v>
       </c>
-      <c r="K71">
+      <c r="M71">
         <v>7597812.410515979</v>
       </c>
-      <c r="L71">
+      <c r="N71">
         <v>-1387551.057273202</v>
       </c>
-      <c r="M71">
+      <c r="O71">
         <v>37989062.05257985</v>
       </c>
     </row>
-    <row r="72" spans="1:13">
+    <row r="72" spans="1:15">
       <c r="A72" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B72">
         <v>0.1157679105624186</v>
@@ -3710,33 +4142,39 @@
         <v>2883307.25</v>
       </c>
       <c r="F72">
+        <v>12668620841.55388</v>
+      </c>
+      <c r="G72">
+        <v>640003904.3871918</v>
+      </c>
+      <c r="H72">
         <v>-39563210.49351324</v>
       </c>
-      <c r="G72">
+      <c r="I72">
         <v>107080036.1231447</v>
       </c>
-      <c r="H72">
+      <c r="J72">
         <v>-54478919.44091195</v>
       </c>
-      <c r="I72">
+      <c r="K72">
         <v>44037187.6278719</v>
       </c>
-      <c r="J72">
+      <c r="L72">
         <v>-5315776.308680058</v>
       </c>
-      <c r="K72">
+      <c r="M72">
         <v>14387445.10507673</v>
       </c>
-      <c r="L72">
+      <c r="N72">
         <v>-26578881.54340029</v>
       </c>
-      <c r="M72">
+      <c r="O72">
         <v>71937225.52538356</v>
       </c>
     </row>
-    <row r="73" spans="1:13">
+    <row r="73" spans="1:15">
       <c r="A73" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B73">
         <v>0.03882925511546208</v>
@@ -3751,33 +4189,39 @@
         <v>1967896.5</v>
       </c>
       <c r="F73">
+        <v>8331725108.718972</v>
+      </c>
+      <c r="G73">
+        <v>436094132.0608147</v>
+      </c>
+      <c r="H73">
         <v>-18810594.3444276</v>
       </c>
-      <c r="G73">
+      <c r="I73">
         <v>-5734284.432008781</v>
       </c>
-      <c r="H73">
+      <c r="J73">
         <v>-30944624.68871409</v>
       </c>
-      <c r="I73">
+      <c r="K73">
         <v>-22159855.00365641</v>
       </c>
-      <c r="J73">
+      <c r="L73">
         <v>-2527421.57476563</v>
       </c>
-      <c r="K73">
+      <c r="M73">
         <v>-770467.6377540901</v>
       </c>
-      <c r="L73">
+      <c r="N73">
         <v>-12637107.87382814</v>
       </c>
-      <c r="M73">
+      <c r="O73">
         <v>-3852338.188770473</v>
       </c>
     </row>
-    <row r="74" spans="1:13">
+    <row r="74" spans="1:15">
       <c r="A74" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B74">
         <v>0.2114788631148144</v>
@@ -3792,33 +4236,39 @@
         <v>35034442.5</v>
       </c>
       <c r="F74">
+        <v>23155221009.51609</v>
+      </c>
+      <c r="G74">
+        <v>4710628793.764984</v>
+      </c>
+      <c r="H74">
         <v>48222123.20833173</v>
       </c>
-      <c r="G74">
+      <c r="I74">
         <v>631435923.8087941</v>
       </c>
-      <c r="H74">
+      <c r="J74">
         <v>19621081.89099216</v>
       </c>
-      <c r="I74">
+      <c r="K74">
         <v>411428782.2083747</v>
       </c>
-      <c r="J74">
+      <c r="L74">
         <v>6479201.685291201</v>
       </c>
-      <c r="K74">
+      <c r="M74">
         <v>84840741.74876773</v>
       </c>
-      <c r="L74">
+      <c r="N74">
         <v>32396008.42645585</v>
       </c>
-      <c r="M74">
+      <c r="O74">
         <v>424203708.7438384</v>
       </c>
     </row>
-    <row r="75" spans="1:13">
+    <row r="75" spans="1:15">
       <c r="A75" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B75">
         <v>0.4709552485333245</v>
@@ -3833,33 +4283,39 @@
         <v>38408.25</v>
       </c>
       <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75">
         <v>16047659.70566607</v>
       </c>
-      <c r="G75">
+      <c r="I75">
         <v>10731392.19077158</v>
       </c>
-      <c r="H75">
+      <c r="J75">
         <v>15390188.92930965</v>
       </c>
-      <c r="I75">
+      <c r="K75">
         <v>11818677.85200273</v>
       </c>
-      <c r="J75">
+      <c r="L75">
         <v>2156189.252819257</v>
       </c>
-      <c r="K75">
+      <c r="M75">
         <v>1441887.037357874</v>
       </c>
-      <c r="L75">
+      <c r="N75">
         <v>10780946.26409628</v>
       </c>
-      <c r="M75">
+      <c r="O75">
         <v>7209435.186789367</v>
       </c>
     </row>
-    <row r="76" spans="1:13">
+    <row r="76" spans="1:15">
       <c r="A76" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B76">
         <v>0.0927937946339874</v>
@@ -3874,33 +4330,39 @@
         <v>2103721</v>
       </c>
       <c r="F76">
+        <v>2748208316.912612</v>
+      </c>
+      <c r="G76">
+        <v>198917935.3193891</v>
+      </c>
+      <c r="H76">
         <v>6919084.903504113</v>
       </c>
-      <c r="G76">
+      <c r="I76">
         <v>76710772.39203483</v>
       </c>
-      <c r="H76">
+      <c r="J76">
         <v>9568239.203257339</v>
       </c>
-      <c r="I76">
+      <c r="K76">
         <v>56454853.59406396</v>
       </c>
-      <c r="J76">
+      <c r="L76">
         <v>929659.3261515887</v>
       </c>
-      <c r="K76">
+      <c r="M76">
         <v>10306982.20431291</v>
       </c>
-      <c r="L76">
+      <c r="N76">
         <v>4648296.630757943</v>
       </c>
-      <c r="M76">
+      <c r="O76">
         <v>51534911.02156456</v>
       </c>
     </row>
-    <row r="77" spans="1:13">
+    <row r="77" spans="1:15">
       <c r="A77" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B77">
         <v>0.2938881340975527</v>
@@ -3915,33 +4377,39 @@
         <v>52645920.75</v>
       </c>
       <c r="F77">
+        <v>4234214727.32078</v>
+      </c>
+      <c r="G77">
+        <v>0</v>
+      </c>
+      <c r="H77">
         <v>4677425.846929308</v>
       </c>
-      <c r="G77">
+      <c r="I77">
         <v>37216285.79598887</v>
       </c>
-      <c r="H77">
+      <c r="J77">
         <v>31644738.65912333</v>
       </c>
-      <c r="I77">
+      <c r="K77">
         <v>53504605.27144352</v>
       </c>
-      <c r="J77">
+      <c r="L77">
         <v>628466.4260700271</v>
       </c>
-      <c r="K77">
+      <c r="M77">
         <v>5000439.748534065</v>
       </c>
-      <c r="L77">
+      <c r="N77">
         <v>3142332.13035015</v>
       </c>
-      <c r="M77">
+      <c r="O77">
         <v>25002198.74267033</v>
       </c>
     </row>
-    <row r="78" spans="1:13">
+    <row r="78" spans="1:15">
       <c r="A78" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B78">
         <v>0.005174931977624367</v>
@@ -3956,33 +4424,39 @@
         <v>606114.25</v>
       </c>
       <c r="F78">
+        <v>12775118296.0182</v>
+      </c>
+      <c r="G78">
+        <v>627262048.2019763</v>
+      </c>
+      <c r="H78">
         <v>-671898615.7598795</v>
       </c>
-      <c r="G78">
+      <c r="I78">
         <v>-350542485.8323898</v>
       </c>
-      <c r="H78">
+      <c r="J78">
         <v>-290181689.8172617</v>
       </c>
-      <c r="I78">
+      <c r="K78">
         <v>-74292069.02956724</v>
       </c>
-      <c r="J78">
+      <c r="L78">
         <v>-90277373.82629491</v>
       </c>
-      <c r="K78">
+      <c r="M78">
         <v>-47099449.66875601</v>
       </c>
-      <c r="L78">
+      <c r="N78">
         <v>-451386869.131475</v>
       </c>
-      <c r="M78">
+      <c r="O78">
         <v>-235497248.3437808</v>
       </c>
     </row>
-    <row r="79" spans="1:13">
+    <row r="79" spans="1:15">
       <c r="A79" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B79">
         <v>0.1223696320960522</v>
@@ -3997,33 +4471,39 @@
         <v>450064.75</v>
       </c>
       <c r="F79">
+        <v>3687889025.586543</v>
+      </c>
+      <c r="G79">
+        <v>730216301.5493581</v>
+      </c>
+      <c r="H79">
         <v>-33309413.91938179</v>
       </c>
-      <c r="G79">
+      <c r="I79">
         <v>-72725941.01725063</v>
       </c>
-      <c r="H79">
+      <c r="J79">
         <v>-64312340.88872699</v>
       </c>
-      <c r="I79">
+      <c r="K79">
         <v>-90792679.3526202</v>
       </c>
-      <c r="J79">
+      <c r="L79">
         <v>-4475506.187691674</v>
       </c>
-      <c r="K79">
+      <c r="M79">
         <v>-9771573.880470321</v>
       </c>
-      <c r="L79">
+      <c r="N79">
         <v>-22377530.93845845</v>
       </c>
-      <c r="M79">
+      <c r="O79">
         <v>-48857869.40235168</v>
       </c>
     </row>
-    <row r="80" spans="1:13">
+    <row r="80" spans="1:15">
       <c r="A80" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B80">
         <v>0.05989864754605726</v>
@@ -4038,33 +4518,39 @@
         <v>1262906.25</v>
       </c>
       <c r="F80">
+        <v>2271466888.177237</v>
+      </c>
+      <c r="G80">
+        <v>315552337.3372826</v>
+      </c>
+      <c r="H80">
         <v>-2184052748.033343</v>
       </c>
-      <c r="G80">
+      <c r="I80">
         <v>-2260254709.231496</v>
       </c>
-      <c r="H80">
+      <c r="J80">
         <v>-2286706293.82836</v>
       </c>
-      <c r="I80">
+      <c r="K80">
         <v>-2337899381.41645</v>
       </c>
-      <c r="J80">
+      <c r="L80">
         <v>-293452824.2293878</v>
       </c>
-      <c r="K80">
+      <c r="M80">
         <v>-303691441.7470055</v>
       </c>
-      <c r="L80">
+      <c r="N80">
         <v>-1467264121.146939</v>
       </c>
-      <c r="M80">
+      <c r="O80">
         <v>-1518457208.73503</v>
       </c>
     </row>
-    <row r="81" spans="1:13">
+    <row r="81" spans="1:15">
       <c r="A81" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B81">
         <v>0.4560688034870074</v>
@@ -4079,33 +4565,39 @@
         <v>126704062</v>
       </c>
       <c r="F81">
+        <v>0</v>
+      </c>
+      <c r="G81">
+        <v>37787776867.76843</v>
+      </c>
+      <c r="H81">
         <v>4636197885.272976</v>
       </c>
-      <c r="G81">
+      <c r="I81">
         <v>22540261217.88248</v>
       </c>
-      <c r="H81">
+      <c r="J81">
         <v>3853007254.447901</v>
       </c>
-      <c r="I81">
+      <c r="K81">
         <v>15881100337.06028</v>
       </c>
-      <c r="J81">
+      <c r="L81">
         <v>622926971.1295929</v>
       </c>
-      <c r="K81">
+      <c r="M81">
         <v>3028545587.652069</v>
       </c>
-      <c r="L81">
+      <c r="N81">
         <v>3114634855.647957</v>
       </c>
-      <c r="M81">
+      <c r="O81">
         <v>15142727938.26034</v>
       </c>
     </row>
-    <row r="82" spans="1:13">
+    <row r="82" spans="1:15">
       <c r="A82" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B82">
         <v>0.1449132329743426</v>
@@ -4120,33 +4612,39 @@
         <v>30940675.25</v>
       </c>
       <c r="F82">
+        <v>40792453007.74967</v>
+      </c>
+      <c r="G82">
+        <v>17355071592.01313</v>
+      </c>
+      <c r="H82">
         <v>314750338.5533776</v>
       </c>
-      <c r="G82">
+      <c r="I82">
         <v>2405603255.101181</v>
       </c>
-      <c r="H82">
+      <c r="J82">
         <v>496885301.2063226</v>
       </c>
-      <c r="I82">
+      <c r="K82">
         <v>1901537029.425111</v>
       </c>
-      <c r="J82">
+      <c r="L82">
         <v>42290359.45162725</v>
       </c>
-      <c r="K82">
+      <c r="M82">
         <v>323220705.0953851</v>
       </c>
-      <c r="L82">
+      <c r="N82">
         <v>211451797.2581372</v>
       </c>
-      <c r="M82">
+      <c r="O82">
         <v>1616103525.476925</v>
       </c>
     </row>
-    <row r="83" spans="1:13">
+    <row r="83" spans="1:15">
       <c r="A83" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B83">
         <v>1.644956220241079</v>
@@ -4158,36 +4656,42 @@
         <v>10945000000</v>
       </c>
       <c r="E83">
-        <v>0</v>
+        <v>2452515</v>
       </c>
       <c r="F83">
+        <v>3142398453.602035</v>
+      </c>
+      <c r="G83">
+        <v>508419371.5573662</v>
+      </c>
+      <c r="H83">
         <v>2657016.900329414</v>
       </c>
-      <c r="G83">
+      <c r="I83">
         <v>12350700.64869005</v>
       </c>
-      <c r="H83">
+      <c r="J83">
         <v>1732828.119842169</v>
       </c>
-      <c r="I83">
+      <c r="K83">
         <v>8245122.467367518</v>
       </c>
-      <c r="J83">
+      <c r="L83">
         <v>357001.0450200797</v>
       </c>
-      <c r="K83">
+      <c r="M83">
         <v>1659459.914525149</v>
       </c>
-      <c r="L83">
+      <c r="N83">
         <v>1785005.225100398</v>
       </c>
-      <c r="M83">
+      <c r="O83">
         <v>8297299.572625745</v>
       </c>
     </row>
-    <row r="84" spans="1:13">
+    <row r="84" spans="1:15">
       <c r="A84" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B84">
         <v>1.77626889548744</v>
@@ -4202,33 +4706,39 @@
         <v>183629549.25</v>
       </c>
       <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>4255580884.992722</v>
+      </c>
+      <c r="H84">
         <v>99997639.90952551</v>
       </c>
-      <c r="G84">
+      <c r="I84">
         <v>-97285725.0783006</v>
       </c>
-      <c r="H84">
+      <c r="J84">
         <v>2193723025.114293</v>
       </c>
-      <c r="I84">
+      <c r="K84">
         <v>2061186481.110753</v>
       </c>
-      <c r="J84">
+      <c r="L84">
         <v>13435843.00981164</v>
       </c>
-      <c r="K84">
+      <c r="M84">
         <v>-13071465.79089642</v>
       </c>
-      <c r="L84">
+      <c r="N84">
         <v>67179215.04905796</v>
       </c>
-      <c r="M84">
+      <c r="O84">
         <v>-65357328.95448196</v>
       </c>
     </row>
-    <row r="85" spans="1:13">
+    <row r="85" spans="1:15">
       <c r="A85" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B85">
         <v>0.3602404008541973</v>
@@ -4243,33 +4753,39 @@
         <v>6115885.25</v>
       </c>
       <c r="F85">
+        <v>3148813587.287746</v>
+      </c>
+      <c r="G85">
+        <v>0</v>
+      </c>
+      <c r="H85">
         <v>47911380.65210344</v>
       </c>
-      <c r="G85">
+      <c r="I85">
         <v>208462900.5232738</v>
       </c>
-      <c r="H85">
+      <c r="J85">
         <v>37828721.29698543</v>
       </c>
-      <c r="I85">
+      <c r="K85">
         <v>145688517.6845504</v>
       </c>
-      <c r="J85">
+      <c r="L85">
         <v>6437449.817889825</v>
       </c>
-      <c r="K85">
+      <c r="M85">
         <v>28009409.09540284</v>
       </c>
-      <c r="L85">
+      <c r="N85">
         <v>32187249.08944909</v>
       </c>
-      <c r="M85">
+      <c r="O85">
         <v>140047045.4770141</v>
       </c>
     </row>
-    <row r="86" spans="1:13">
+    <row r="86" spans="1:15">
       <c r="A86" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B86">
         <v>0.0813244501352182</v>
@@ -4284,33 +4800,39 @@
         <v>16992024.75</v>
       </c>
       <c r="F86">
+        <v>301314513790.1466</v>
+      </c>
+      <c r="G86">
+        <v>25519214650.87755</v>
+      </c>
+      <c r="H86">
         <v>-15063023635.59191</v>
       </c>
-      <c r="G86">
+      <c r="I86">
         <v>-22852606039.15596</v>
       </c>
-      <c r="H86">
+      <c r="J86">
         <v>-17824669213.5819</v>
       </c>
-      <c r="I86">
+      <c r="K86">
         <v>-23057773033.88056</v>
       </c>
-      <c r="J86">
+      <c r="L86">
         <v>-2023891973.890633</v>
       </c>
-      <c r="K86">
+      <c r="M86">
         <v>-3070512737.950363</v>
       </c>
-      <c r="L86">
+      <c r="N86">
         <v>-10119459869.45318</v>
       </c>
-      <c r="M86">
+      <c r="O86">
         <v>-15352563689.75183</v>
       </c>
     </row>
-    <row r="87" spans="1:13">
+    <row r="87" spans="1:15">
       <c r="A87" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B87">
         <v>1.120509505427408</v>
@@ -4325,33 +4847,39 @@
         <v>5211053.25</v>
       </c>
       <c r="F87">
+        <v>143642415165.2614</v>
+      </c>
+      <c r="G87">
+        <v>12711932917.64178</v>
+      </c>
+      <c r="H87">
         <v>1053385691.383061</v>
       </c>
-      <c r="G87">
+      <c r="I87">
         <v>827583222.8186368</v>
       </c>
-      <c r="H87">
+      <c r="J87">
         <v>1745862820.263466</v>
       </c>
-      <c r="I87">
+      <c r="K87">
         <v>1594166914.159859</v>
       </c>
-      <c r="J87">
+      <c r="L87">
         <v>141534588.126379</v>
       </c>
-      <c r="K87">
+      <c r="M87">
         <v>111195406.9056578</v>
       </c>
-      <c r="L87">
+      <c r="N87">
         <v>707672940.6318955</v>
       </c>
-      <c r="M87">
+      <c r="O87">
         <v>555977034.5282892</v>
       </c>
     </row>
-    <row r="88" spans="1:13">
+    <row r="88" spans="1:15">
       <c r="A88" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B88">
         <v>0.2769680603303864</v>
@@ -4366,33 +4894,39 @@
         <v>4648125</v>
       </c>
       <c r="F88">
+        <v>60860293470.54649</v>
+      </c>
+      <c r="G88">
+        <v>8974944428.672821</v>
+      </c>
+      <c r="H88">
         <v>116670017.962335</v>
       </c>
-      <c r="G88">
+      <c r="I88">
         <v>285291767.9141564</v>
       </c>
-      <c r="H88">
+      <c r="J88">
         <v>716793.0330288409</v>
       </c>
-      <c r="I88">
+      <c r="K88">
         <v>113998234.5971595</v>
       </c>
-      <c r="J88">
+      <c r="L88">
         <v>15675970.42002309</v>
       </c>
-      <c r="K88">
+      <c r="M88">
         <v>38332258.73284912</v>
       </c>
-      <c r="L88">
+      <c r="N88">
         <v>78379852.10011506</v>
       </c>
-      <c r="M88">
+      <c r="O88">
         <v>191661293.6642456</v>
       </c>
     </row>
-    <row r="89" spans="1:13">
+    <row r="89" spans="1:15">
       <c r="A89" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B89">
         <v>0.07234454195091813</v>
@@ -4407,33 +4941,39 @@
         <v>4001485.25</v>
       </c>
       <c r="F89">
+        <v>8611043762.443003</v>
+      </c>
+      <c r="G89">
+        <v>0</v>
+      </c>
+      <c r="H89">
         <v>217327259.5084107</v>
       </c>
-      <c r="G89">
+      <c r="I89">
         <v>-75909916.16552377</v>
       </c>
-      <c r="H89">
+      <c r="J89">
         <v>79176685.99511766</v>
       </c>
-      <c r="I89">
+      <c r="K89">
         <v>-117822396.2112328</v>
       </c>
-      <c r="J89">
+      <c r="L89">
         <v>29200438.56184494</v>
       </c>
-      <c r="K89">
+      <c r="M89">
         <v>-10199377.87942517</v>
       </c>
-      <c r="L89">
+      <c r="N89">
         <v>146002192.8092246</v>
       </c>
-      <c r="M89">
+      <c r="O89">
         <v>-50996889.39712584</v>
       </c>
     </row>
-    <row r="90" spans="1:13">
+    <row r="90" spans="1:15">
       <c r="A90" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B90">
         <v>1.41044544263576</v>
@@ -4448,33 +4988,39 @@
         <v>31572337.25</v>
       </c>
       <c r="F90">
+        <v>25389636418.45771</v>
+      </c>
+      <c r="G90">
+        <v>6646655023.312309</v>
+      </c>
+      <c r="H90">
         <v>531933528.9532265</v>
       </c>
-      <c r="G90">
+      <c r="I90">
         <v>969556064.5769422</v>
       </c>
-      <c r="H90">
+      <c r="J90">
         <v>1207646208.666494</v>
       </c>
-      <c r="I90">
+      <c r="K90">
         <v>1501644531.602705</v>
       </c>
-      <c r="J90">
+      <c r="L90">
         <v>71471440.65736914</v>
       </c>
-      <c r="K90">
+      <c r="M90">
         <v>130271105.2446115</v>
       </c>
-      <c r="L90">
+      <c r="N90">
         <v>357357203.2868459</v>
       </c>
-      <c r="M90">
+      <c r="O90">
         <v>651355526.2230573</v>
       </c>
     </row>
-    <row r="91" spans="1:13">
+    <row r="91" spans="1:15">
       <c r="A91" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B91">
         <v>0.1787880268188615</v>
@@ -4489,33 +5035,39 @@
         <v>8002940.75</v>
       </c>
       <c r="F91">
+        <v>3145721283.938551</v>
+      </c>
+      <c r="G91">
+        <v>0</v>
+      </c>
+      <c r="H91">
         <v>-32238751.34072264</v>
       </c>
-      <c r="G91">
+      <c r="I91">
         <v>-70574751.41267729</v>
       </c>
-      <c r="H91">
+      <c r="J91">
         <v>365548188.6837042</v>
       </c>
-      <c r="I91">
+      <c r="K91">
         <v>339793756.9262681</v>
       </c>
-      <c r="J91">
+      <c r="L91">
         <v>-4331650.249327928</v>
       </c>
-      <c r="K91">
+      <c r="M91">
         <v>-9482536.600815147</v>
       </c>
-      <c r="L91">
+      <c r="N91">
         <v>-21658251.24663976</v>
       </c>
-      <c r="M91">
+      <c r="O91">
         <v>-47412683.00407586</v>
       </c>
     </row>
-    <row r="92" spans="1:13">
+    <row r="92" spans="1:15">
       <c r="A92" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B92">
         <v>0.2288659649874671</v>
@@ -4530,33 +5082,39 @@
         <v>102514230</v>
       </c>
       <c r="F92">
+        <v>43415746659.06635</v>
+      </c>
+      <c r="G92">
+        <v>11350149943.31396</v>
+      </c>
+      <c r="H92">
         <v>-308861793.4216475</v>
       </c>
-      <c r="G92">
+      <c r="I92">
         <v>4956460660.778828</v>
       </c>
-      <c r="H92">
+      <c r="J92">
         <v>-351186854.9695082</v>
       </c>
-      <c r="I92">
+      <c r="K92">
         <v>3186098922.708862</v>
       </c>
-      <c r="J92">
+      <c r="L92">
         <v>-41499165.09926367</v>
       </c>
-      <c r="K92">
+      <c r="M92">
         <v>665957990.4364103</v>
       </c>
-      <c r="L92">
+      <c r="N92">
         <v>-207495825.4963185</v>
       </c>
-      <c r="M92">
+      <c r="O92">
         <v>3329789952.182053</v>
       </c>
     </row>
-    <row r="93" spans="1:13">
+    <row r="93" spans="1:15">
       <c r="A93" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B93">
         <v>0.3769365909702638</v>
@@ -4571,33 +5129,39 @@
         <v>191286550.25</v>
       </c>
       <c r="F93">
+        <v>27858825095.19225</v>
+      </c>
+      <c r="G93">
+        <v>0</v>
+      </c>
+      <c r="H93">
         <v>-233551687.0795963</v>
       </c>
-      <c r="G93">
+      <c r="I93">
         <v>-74336020.04838163</v>
       </c>
-      <c r="H93">
+      <c r="J93">
         <v>-243631118.5809262</v>
       </c>
-      <c r="I93">
+      <c r="K93">
         <v>-136668758.8257705</v>
       </c>
-      <c r="J93">
+      <c r="L93">
         <v>-31380378.62810785</v>
       </c>
-      <c r="K93">
+      <c r="M93">
         <v>-9987906.677076695</v>
       </c>
-      <c r="L93">
+      <c r="N93">
         <v>-156901893.1405393</v>
       </c>
-      <c r="M93">
+      <c r="O93">
         <v>-49939533.38538361</v>
       </c>
     </row>
-    <row r="94" spans="1:13">
+    <row r="94" spans="1:15">
       <c r="A94" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B94">
         <v>0.1982935992218995</v>
@@ -4612,33 +5176,39 @@
         <v>37986018.75</v>
       </c>
       <c r="F94">
+        <v>159205910232.1582</v>
+      </c>
+      <c r="G94">
+        <v>9126103320.209379</v>
+      </c>
+      <c r="H94">
         <v>1084484142.394455</v>
       </c>
-      <c r="G94">
+      <c r="I94">
         <v>4391158243.227777</v>
       </c>
-      <c r="H94">
+      <c r="J94">
         <v>922191445.7316037</v>
       </c>
-      <c r="I94">
+      <c r="K94">
         <v>3143641579.13492</v>
       </c>
-      <c r="J94">
+      <c r="L94">
         <v>145713025.797663</v>
       </c>
-      <c r="K94">
+      <c r="M94">
         <v>590003052.4783263</v>
       </c>
-      <c r="L94">
+      <c r="N94">
         <v>728565128.9883138</v>
       </c>
-      <c r="M94">
+      <c r="O94">
         <v>2950015262.391629</v>
       </c>
     </row>
-    <row r="95" spans="1:13">
+    <row r="95" spans="1:15">
       <c r="A95" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B95">
         <v>0.01553378878135734</v>
@@ -4653,33 +5223,39 @@
         <v>3437937</v>
       </c>
       <c r="F95">
+        <v>0</v>
+      </c>
+      <c r="G95">
+        <v>0</v>
+      </c>
+      <c r="H95">
         <v>-30381468325.32146</v>
       </c>
-      <c r="G95">
+      <c r="I95">
         <v>-32944020521.32828</v>
       </c>
-      <c r="H95">
+      <c r="J95">
         <v>-31957242344.46062</v>
       </c>
-      <c r="I95">
+      <c r="K95">
         <v>-33678785424.93466</v>
       </c>
-      <c r="J95">
+      <c r="L95">
         <v>-4082102729.583504</v>
       </c>
-      <c r="K95">
+      <c r="M95">
         <v>-4426411345.678314</v>
       </c>
-      <c r="L95">
+      <c r="N95">
         <v>-20410513647.91754</v>
       </c>
-      <c r="M95">
+      <c r="O95">
         <v>-22132056728.39158</v>
       </c>
     </row>
-    <row r="96" spans="1:13">
+    <row r="96" spans="1:15">
       <c r="A96" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B96">
         <v>0.3474442448407433</v>
@@ -4694,33 +5270,39 @@
         <v>10344577</v>
       </c>
       <c r="F96">
+        <v>70681053927.93391</v>
+      </c>
+      <c r="G96">
+        <v>6615632134.18939</v>
+      </c>
+      <c r="H96">
         <v>512280294.7485839</v>
       </c>
-      <c r="G96">
+      <c r="I96">
         <v>1019871262.669995</v>
       </c>
-      <c r="H96">
+      <c r="J96">
         <v>396519629.9182221</v>
       </c>
-      <c r="I96">
+      <c r="K96">
         <v>737523305.8230145</v>
       </c>
-      <c r="J96">
+      <c r="L96">
         <v>68830800.64178932</v>
       </c>
-      <c r="K96">
+      <c r="M96">
         <v>137031535.8227478</v>
       </c>
-      <c r="L96">
+      <c r="N96">
         <v>344154003.2089468</v>
       </c>
-      <c r="M96">
+      <c r="O96">
         <v>685157679.1137393</v>
       </c>
     </row>
-    <row r="97" spans="1:13">
+    <row r="97" spans="1:15">
       <c r="A97" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B97">
         <v>0.1657047711363369</v>
@@ -4735,33 +5317,39 @@
         <v>6682077</v>
       </c>
       <c r="F97">
+        <v>3020223014.053269</v>
+      </c>
+      <c r="G97">
+        <v>606255246.4463352</v>
+      </c>
+      <c r="H97">
         <v>65555292.41189086</v>
       </c>
-      <c r="G97">
+      <c r="I97">
         <v>40377563.07320733</v>
       </c>
-      <c r="H97">
+      <c r="J97">
         <v>67391782.45653602</v>
       </c>
-      <c r="I97">
+      <c r="K97">
         <v>50477182.31976542</v>
       </c>
-      <c r="J97">
+      <c r="L97">
         <v>8808114.052545339</v>
       </c>
-      <c r="K97">
+      <c r="M97">
         <v>5425194.025191218</v>
       </c>
-      <c r="L97">
+      <c r="N97">
         <v>44040570.26272664</v>
       </c>
-      <c r="M97">
+      <c r="O97">
         <v>27125970.12595606</v>
       </c>
     </row>
-    <row r="98" spans="1:13">
+    <row r="98" spans="1:15">
       <c r="A98" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B98">
         <v>0.4278407161903409</v>
@@ -4776,33 +5364,39 @@
         <v>2516243.25</v>
       </c>
       <c r="F98">
+        <v>0</v>
+      </c>
+      <c r="G98">
+        <v>6649586666.688611</v>
+      </c>
+      <c r="H98">
         <v>-1104662774.586554</v>
       </c>
-      <c r="G98">
+      <c r="I98">
         <v>-1149246408.846273</v>
       </c>
-      <c r="H98">
+      <c r="J98">
         <v>-879794148.4797195</v>
       </c>
-      <c r="I98">
+      <c r="K98">
         <v>-909745790.901601</v>
       </c>
-      <c r="J98">
+      <c r="L98">
         <v>-148424259.1280799</v>
       </c>
-      <c r="K98">
+      <c r="M98">
         <v>-154414587.6124561</v>
       </c>
-      <c r="L98">
+      <c r="N98">
         <v>-742121295.6403997</v>
       </c>
-      <c r="M98">
+      <c r="O98">
         <v>-772072938.0622814</v>
       </c>
     </row>
-    <row r="99" spans="1:13">
+    <row r="99" spans="1:15">
       <c r="A99" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B99">
         <v>0.2631583188033569</v>
@@ -4817,33 +5411,39 @@
         <v>19753332.75</v>
       </c>
       <c r="F99">
+        <v>48321281767.00397</v>
+      </c>
+      <c r="G99">
+        <v>3772988828.179805</v>
+      </c>
+      <c r="H99">
         <v>435446990.425054</v>
       </c>
-      <c r="G99">
+      <c r="I99">
         <v>1554480014.887835</v>
       </c>
-      <c r="H99">
+      <c r="J99">
         <v>407590489.9440168</v>
       </c>
-      <c r="I99">
+      <c r="K99">
         <v>1159365834.496143</v>
       </c>
-      <c r="J99">
+      <c r="L99">
         <v>58507354.85096836</v>
       </c>
-      <c r="K99">
+      <c r="M99">
         <v>208862423.7613934</v>
       </c>
-      <c r="L99">
+      <c r="N99">
         <v>292536774.2548417</v>
       </c>
-      <c r="M99">
+      <c r="O99">
         <v>1044312118.806967</v>
       </c>
     </row>
-    <row r="100" spans="1:13">
+    <row r="100" spans="1:15">
       <c r="A100" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B100">
         <v>3.037009127788569</v>
@@ -4858,33 +5458,39 @@
         <v>7076637.25</v>
       </c>
       <c r="F100">
+        <v>13839772672.29938</v>
+      </c>
+      <c r="G100">
+        <v>902243620.0800525</v>
+      </c>
+      <c r="H100">
         <v>68207765.18866283</v>
       </c>
-      <c r="G100">
+      <c r="I100">
         <v>278335293.5736244</v>
       </c>
-      <c r="H100">
+      <c r="J100">
         <v>68824432.2381833</v>
       </c>
-      <c r="I100">
+      <c r="K100">
         <v>209989788.0393026</v>
       </c>
-      <c r="J100">
+      <c r="L100">
         <v>9164504.541848393</v>
       </c>
-      <c r="K100">
+      <c r="M100">
         <v>37397575.70207225</v>
       </c>
-      <c r="L100">
+      <c r="N100">
         <v>45822522.70924197</v>
       </c>
-      <c r="M100">
+      <c r="O100">
         <v>186987878.5103612</v>
       </c>
     </row>
-    <row r="101" spans="1:13">
+    <row r="101" spans="1:15">
       <c r="A101" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B101">
         <v>0.4012236469816403</v>
@@ -4899,33 +5505,39 @@
         <v>144188494</v>
       </c>
       <c r="F101">
+        <v>400814842174.5289</v>
+      </c>
+      <c r="G101">
+        <v>46100109643.07681</v>
+      </c>
+      <c r="H101">
         <v>1246632085.65416</v>
       </c>
-      <c r="G101">
+      <c r="I101">
         <v>4058269953.874191</v>
       </c>
-      <c r="H101">
+      <c r="J101">
         <v>1314461549.316808</v>
       </c>
-      <c r="I101">
+      <c r="K101">
         <v>3203342378.505617</v>
       </c>
-      <c r="J101">
+      <c r="L101">
         <v>167499483.0777781</v>
       </c>
-      <c r="K101">
+      <c r="M101">
         <v>545275648.9155396</v>
       </c>
-      <c r="L101">
+      <c r="N101">
         <v>837497415.3888893</v>
       </c>
-      <c r="M101">
+      <c r="O101">
         <v>2726378244.577699</v>
       </c>
     </row>
-    <row r="102" spans="1:13">
+    <row r="102" spans="1:15">
       <c r="A102" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B102">
         <v>0.4191281043252832</v>
@@ -4940,33 +5552,39 @@
         <v>31886941.5</v>
       </c>
       <c r="F102">
+        <v>21829976674.02858</v>
+      </c>
+      <c r="G102">
+        <v>3500018031.81101</v>
+      </c>
+      <c r="H102">
         <v>239243559.5324028</v>
       </c>
-      <c r="G102">
+      <c r="I102">
         <v>563906884.8969243</v>
       </c>
-      <c r="H102">
+      <c r="J102">
         <v>321307840.8528876</v>
       </c>
-      <c r="I102">
+      <c r="K102">
         <v>539419262.0118172</v>
       </c>
-      <c r="J102">
+      <c r="L102">
         <v>32145147.72442817</v>
       </c>
-      <c r="K102">
+      <c r="M102">
         <v>75767431.95621407</v>
       </c>
-      <c r="L102">
+      <c r="N102">
         <v>160725738.6221411</v>
       </c>
-      <c r="M102">
+      <c r="O102">
         <v>378837159.7810707</v>
       </c>
     </row>
-    <row r="103" spans="1:13">
+    <row r="103" spans="1:15">
       <c r="A103" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B103">
         <v>1.215566435947169</v>
@@ -4981,33 +5599,39 @@
         <v>9871531.25</v>
       </c>
       <c r="F103">
+        <v>227165214131.7061</v>
+      </c>
+      <c r="G103">
+        <v>13598015763.87418</v>
+      </c>
+      <c r="H103">
         <v>444612710.6611599</v>
       </c>
-      <c r="G103">
+      <c r="I103">
         <v>296343631.5305371</v>
       </c>
-      <c r="H103">
+      <c r="J103">
         <v>-41846163.97531128</v>
       </c>
-      <c r="I103">
+      <c r="K103">
         <v>-141454518.343013</v>
       </c>
-      <c r="J103">
+      <c r="L103">
         <v>59738875.6976161</v>
       </c>
-      <c r="K103">
+      <c r="M103">
         <v>39817204.8240757</v>
       </c>
-      <c r="L103">
+      <c r="N103">
         <v>298694378.488081</v>
       </c>
-      <c r="M103">
+      <c r="O103">
         <v>199086024.120379</v>
       </c>
     </row>
-    <row r="104" spans="1:13">
+    <row r="104" spans="1:15">
       <c r="A104" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B104">
         <v>0.06238487249287841</v>
@@ -5022,33 +5646,39 @@
         <v>5556065.5</v>
       </c>
       <c r="F104">
+        <v>44213495718.4691</v>
+      </c>
+      <c r="G104">
+        <v>14218511286.90894</v>
+      </c>
+      <c r="H104">
         <v>-2037706481.328984</v>
       </c>
-      <c r="G104">
+      <c r="I104">
         <v>-12286351546.64663</v>
       </c>
-      <c r="H104">
+      <c r="J104">
         <v>-7768892779.827045</v>
       </c>
-      <c r="I104">
+      <c r="K104">
         <v>-14654014582.97529</v>
       </c>
-      <c r="J104">
+      <c r="L104">
         <v>-273789505.5121574</v>
       </c>
-      <c r="K104">
+      <c r="M104">
         <v>-1650813866.141807</v>
       </c>
-      <c r="L104">
+      <c r="N104">
         <v>-1368947527.560791</v>
       </c>
-      <c r="M104">
+      <c r="O104">
         <v>-8254069330.709038</v>
       </c>
     </row>
-    <row r="105" spans="1:13">
+    <row r="105" spans="1:15">
       <c r="A105" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B105">
         <v>0.1540733019247695</v>
@@ -5063,33 +5693,39 @@
         <v>2064325.25</v>
       </c>
       <c r="F105">
+        <v>16215475323.27907</v>
+      </c>
+      <c r="G105">
+        <v>794473219.0465115</v>
+      </c>
+      <c r="H105">
         <v>47812520.81036176</v>
       </c>
-      <c r="G105">
+      <c r="I105">
         <v>99315281.73208278</v>
       </c>
-      <c r="H105">
+      <c r="J105">
         <v>42589181.17315084</v>
       </c>
-      <c r="I105">
+      <c r="K105">
         <v>77189148.27948387</v>
       </c>
-      <c r="J105">
+      <c r="L105">
         <v>6424166.851263627</v>
       </c>
-      <c r="K105">
+      <c r="M105">
         <v>13344160.27253024</v>
       </c>
-      <c r="L105">
+      <c r="N105">
         <v>32120834.25631815</v>
       </c>
-      <c r="M105">
+      <c r="O105">
         <v>66720801.36265121</v>
       </c>
     </row>
-    <row r="106" spans="1:13">
+    <row r="106" spans="1:15">
       <c r="A106" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B106">
         <v>0.1361389850972489</v>
@@ -5104,33 +5740,39 @@
         <v>5428285</v>
       </c>
       <c r="F106">
+        <v>29592783664.32924</v>
+      </c>
+      <c r="G106">
+        <v>2885401551.024737</v>
+      </c>
+      <c r="H106">
         <v>123486183.829612</v>
       </c>
-      <c r="G106">
+      <c r="I106">
         <v>921055960.4812641</v>
       </c>
-      <c r="H106">
+      <c r="J106">
         <v>101526226.3388554</v>
       </c>
-      <c r="I106">
+      <c r="K106">
         <v>637339987.4514973</v>
       </c>
-      <c r="J106">
+      <c r="L106">
         <v>16591801.37967801</v>
       </c>
-      <c r="K106">
+      <c r="M106">
         <v>123754553.6022065</v>
       </c>
-      <c r="L106">
+      <c r="N106">
         <v>82959006.8983897</v>
       </c>
-      <c r="M106">
+      <c r="O106">
         <v>618772768.0110317</v>
       </c>
     </row>
-    <row r="107" spans="1:13">
+    <row r="107" spans="1:15">
       <c r="A107" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B107">
         <v>0.02200725380977351</v>
@@ -5145,33 +5787,39 @@
         <v>15196321.5</v>
       </c>
       <c r="F107">
+        <v>2342662060.465637</v>
+      </c>
+      <c r="G107">
+        <v>216441678.0427456</v>
+      </c>
+      <c r="H107">
         <v>-55870186.53289096</v>
       </c>
-      <c r="G107">
+      <c r="I107">
         <v>-50973723.25606047</v>
       </c>
-      <c r="H107">
+      <c r="J107">
         <v>-57732865.62865073</v>
       </c>
-      <c r="I107">
+      <c r="K107">
         <v>-54443382.39933026</v>
       </c>
-      <c r="J107">
+      <c r="L107">
         <v>-7506807.719302057</v>
       </c>
-      <c r="K107">
+      <c r="M107">
         <v>-6848911.073437966</v>
       </c>
-      <c r="L107">
+      <c r="N107">
         <v>-37534038.59651028</v>
       </c>
-      <c r="M107">
+      <c r="O107">
         <v>-34244555.36718982</v>
       </c>
     </row>
-    <row r="108" spans="1:13">
+    <row r="108" spans="1:15">
       <c r="A108" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B108">
         <v>0.2294454729434642</v>
@@ -5186,33 +5834,39 @@
         <v>6329060.5</v>
       </c>
       <c r="F108">
+        <v>4767420112.154323</v>
+      </c>
+      <c r="G108">
+        <v>999200870.7878593</v>
+      </c>
+      <c r="H108">
         <v>-27135549.35401273</v>
       </c>
-      <c r="G108">
+      <c r="I108">
         <v>733114127.6273433</v>
       </c>
-      <c r="H108">
+      <c r="J108">
         <v>-40511984.15738058</v>
       </c>
-      <c r="I108">
+      <c r="K108">
         <v>470229835.2207217</v>
       </c>
-      <c r="J108">
+      <c r="L108">
         <v>-3645975.859384</v>
       </c>
-      <c r="K108">
+      <c r="M108">
         <v>98502388.01623642</v>
       </c>
-      <c r="L108">
+      <c r="N108">
         <v>-18229879.29692024</v>
       </c>
-      <c r="M108">
+      <c r="O108">
         <v>492511940.0811821</v>
       </c>
     </row>
-    <row r="109" spans="1:13">
+    <row r="109" spans="1:15">
       <c r="A109" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B109">
         <v>0.005817303773967213</v>
@@ -5227,33 +5881,39 @@
         <v>0</v>
       </c>
       <c r="F109">
+        <v>0</v>
+      </c>
+      <c r="G109">
+        <v>0</v>
+      </c>
+      <c r="H109">
         <v>-64518676399.30206</v>
       </c>
-      <c r="G109">
+      <c r="I109">
         <v>-80242298166.30597</v>
       </c>
-      <c r="H109">
+      <c r="J109">
         <v>-54056709560.54433</v>
       </c>
-      <c r="I109">
+      <c r="K109">
         <v>-64619964543.27502</v>
       </c>
-      <c r="J109">
+      <c r="L109">
         <v>-8668832665.312576</v>
       </c>
-      <c r="K109">
+      <c r="M109">
         <v>-10781483661.85872</v>
       </c>
-      <c r="L109">
+      <c r="N109">
         <v>-43344163326.56288</v>
       </c>
-      <c r="M109">
+      <c r="O109">
         <v>-53907418309.29358</v>
       </c>
     </row>
-    <row r="110" spans="1:13">
+    <row r="110" spans="1:15">
       <c r="A110" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B110">
         <v>0.1702710851104377</v>
@@ -5268,33 +5928,39 @@
         <v>68743849.75</v>
       </c>
       <c r="F110">
+        <v>71255532011.76402</v>
+      </c>
+      <c r="G110">
+        <v>16467162037.08834</v>
+      </c>
+      <c r="H110">
         <v>-643043125.2548832</v>
       </c>
-      <c r="G110">
+      <c r="I110">
         <v>861600867.5768852</v>
       </c>
-      <c r="H110">
+      <c r="J110">
         <v>-670585250.9004145</v>
       </c>
-      <c r="I110">
+      <c r="K110">
         <v>340246629.3136911</v>
       </c>
-      <c r="J110">
+      <c r="L110">
         <v>-86400303.91997528</v>
       </c>
-      <c r="K110">
+      <c r="M110">
         <v>115766072.1228456</v>
       </c>
-      <c r="L110">
+      <c r="N110">
         <v>-432001519.5998755</v>
       </c>
-      <c r="M110">
+      <c r="O110">
         <v>578830360.6142303</v>
       </c>
     </row>
-    <row r="111" spans="1:13">
+    <row r="111" spans="1:15">
       <c r="A111" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B111">
         <v>0.2338423056782688</v>
@@ -5309,33 +5975,39 @@
         <v>11338236</v>
       </c>
       <c r="F111">
+        <v>12460186638.38316</v>
+      </c>
+      <c r="G111">
+        <v>679178508.4349424</v>
+      </c>
+      <c r="H111">
         <v>22083935.67883252</v>
       </c>
-      <c r="G111">
+      <c r="I111">
         <v>174829966.7215808</v>
       </c>
-      <c r="H111">
+      <c r="J111">
         <v>12328559.99975969</v>
       </c>
-      <c r="I111">
+      <c r="K111">
         <v>114944566.5034633</v>
       </c>
-      <c r="J111">
+      <c r="L111">
         <v>2967232.957578101</v>
       </c>
-      <c r="K111">
+      <c r="M111">
         <v>23490434.25831881</v>
       </c>
-      <c r="L111">
+      <c r="N111">
         <v>14836164.78789048</v>
       </c>
-      <c r="M111">
+      <c r="O111">
         <v>117452171.2915941</v>
       </c>
     </row>
-    <row r="112" spans="1:13">
+    <row r="112" spans="1:15">
       <c r="A112" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B112">
         <v>0.5210711135742035</v>
@@ -5350,33 +6022,39 @@
         <v>78889886.5</v>
       </c>
       <c r="F112">
+        <v>214797500930.788</v>
+      </c>
+      <c r="G112">
+        <v>14703822077.67806</v>
+      </c>
+      <c r="H112">
         <v>885613385.0147377</v>
       </c>
-      <c r="G112">
+      <c r="I112">
         <v>1403081020.506551</v>
       </c>
-      <c r="H112">
+      <c r="J112">
         <v>669671939.755296</v>
       </c>
-      <c r="I112">
+      <c r="K112">
         <v>1017310840.004187</v>
       </c>
-      <c r="J112">
+      <c r="L112">
         <v>118992432.4135213</v>
       </c>
-      <c r="K112">
+      <c r="M112">
         <v>188520212.4632995</v>
       </c>
-      <c r="L112">
+      <c r="N112">
         <v>594962162.0676063</v>
       </c>
-      <c r="M112">
+      <c r="O112">
         <v>942601062.3164972</v>
       </c>
     </row>
-    <row r="113" spans="1:13">
+    <row r="113" spans="1:15">
       <c r="A113" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B113">
         <v>0.1802527304245044</v>
@@ -5391,33 +6069,39 @@
         <v>23577271</v>
       </c>
       <c r="F113">
+        <v>0</v>
+      </c>
+      <c r="G113">
+        <v>0</v>
+      </c>
+      <c r="H113">
         <v>-74809584.85013056</v>
       </c>
-      <c r="G113">
+      <c r="I113">
         <v>674739470.7375464</v>
       </c>
-      <c r="H113">
+      <c r="J113">
         <v>-328304203.3909159</v>
       </c>
-      <c r="I113">
+      <c r="K113">
         <v>175248852.868227</v>
       </c>
-      <c r="J113">
+      <c r="L113">
         <v>-10051535.6020894</v>
       </c>
-      <c r="K113">
+      <c r="M113">
         <v>90659075.64973928</v>
       </c>
-      <c r="L113">
+      <c r="N113">
         <v>-50257678.01044798</v>
       </c>
-      <c r="M113">
+      <c r="O113">
         <v>453295378.2486954</v>
       </c>
     </row>
-    <row r="114" spans="1:13">
+    <row r="114" spans="1:15">
       <c r="A114" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B114">
         <v>0.2967113110764871</v>
@@ -5432,33 +6116,39 @@
         <v>45065445</v>
       </c>
       <c r="F114">
+        <v>29874275095.81216</v>
+      </c>
+      <c r="G114">
+        <v>2294800315.93204</v>
+      </c>
+      <c r="H114">
         <v>87816910.58183739</v>
       </c>
-      <c r="G114">
+      <c r="I114">
         <v>570707869.4490705</v>
       </c>
-      <c r="H114">
+      <c r="J114">
         <v>43861599.68763167</v>
       </c>
-      <c r="I114">
+      <c r="K114">
         <v>368271611.7673018</v>
       </c>
-      <c r="J114">
+      <c r="L114">
         <v>11799220.71412644</v>
       </c>
-      <c r="K114">
+      <c r="M114">
         <v>76681223.13006049</v>
       </c>
-      <c r="L114">
+      <c r="N114">
         <v>58996103.57063219</v>
       </c>
-      <c r="M114">
+      <c r="O114">
         <v>383406115.6503023</v>
       </c>
     </row>
-    <row r="115" spans="1:13">
+    <row r="115" spans="1:15">
       <c r="A115" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B115">
         <v>2.296491669346442</v>
@@ -5473,33 +6163,39 @@
         <v>40832282.75</v>
       </c>
       <c r="F115">
+        <v>3207987015.574299</v>
+      </c>
+      <c r="G115">
+        <v>0</v>
+      </c>
+      <c r="H115">
         <v>10942191.21788897</v>
       </c>
-      <c r="G115">
+      <c r="I115">
         <v>16763402.30746983</v>
       </c>
-      <c r="H115">
+      <c r="J115">
         <v>16311617.76340888</v>
       </c>
-      <c r="I115">
+      <c r="K115">
         <v>20222353.97665087</v>
       </c>
-      <c r="J115">
+      <c r="L115">
         <v>1470210.33216296</v>
       </c>
-      <c r="K115">
+      <c r="M115">
         <v>2252357.574811357</v>
       </c>
-      <c r="L115">
+      <c r="N115">
         <v>7351051.660814797</v>
       </c>
-      <c r="M115">
+      <c r="O115">
         <v>11261787.87405678</v>
       </c>
     </row>
-    <row r="116" spans="1:13">
+    <row r="116" spans="1:15">
       <c r="A116" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B116">
         <v>0.2034671187804626</v>
@@ -5514,33 +6210,39 @@
         <v>322196869.25</v>
       </c>
       <c r="F116">
+        <v>5030701274022.499</v>
+      </c>
+      <c r="G116">
+        <v>355596860701.1148</v>
+      </c>
+      <c r="H116">
         <v>50790766388.6875</v>
       </c>
-      <c r="G116">
+      <c r="I116">
         <v>13630182671.625</v>
       </c>
-      <c r="H116">
+      <c r="J116">
         <v>66067659284.34447</v>
       </c>
-      <c r="I116">
+      <c r="K116">
         <v>41102881644.23486</v>
       </c>
-      <c r="J116">
+      <c r="L116">
         <v>6824328695.795775</v>
       </c>
-      <c r="K116">
+      <c r="M116">
         <v>1831373167.773804</v>
       </c>
-      <c r="L116">
+      <c r="N116">
         <v>34121643478.97852</v>
       </c>
-      <c r="M116">
+      <c r="O116">
         <v>9156865838.868895</v>
       </c>
     </row>
-    <row r="117" spans="1:13">
+    <row r="117" spans="1:15">
       <c r="A117" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B117">
         <v>0.03031723305851668</v>
@@ -5555,33 +6257,39 @@
         <v>3437963.5</v>
       </c>
       <c r="F117">
+        <v>17942881571.56679</v>
+      </c>
+      <c r="G117">
+        <v>1424464477.417897</v>
+      </c>
+      <c r="H117">
         <v>-583778710.3278617</v>
       </c>
-      <c r="G117">
+      <c r="I117">
         <v>-595038895.6806022</v>
       </c>
-      <c r="H117">
+      <c r="J117">
         <v>-642207297.3226513</v>
       </c>
-      <c r="I117">
+      <c r="K117">
         <v>-649771979.9890463</v>
       </c>
-      <c r="J117">
+      <c r="L117">
         <v>-78437442.23895705</v>
       </c>
-      <c r="K117">
+      <c r="M117">
         <v>-79950378.77223599</v>
       </c>
-      <c r="L117">
+      <c r="N117">
         <v>-392187211.1947853</v>
       </c>
-      <c r="M117">
+      <c r="O117">
         <v>-399751893.8611803</v>
       </c>
     </row>
-    <row r="118" spans="1:13">
+    <row r="118" spans="1:15">
       <c r="A118" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B118">
         <v>0.007677296166441261</v>
@@ -5596,33 +6304,39 @@
         <v>30389.5</v>
       </c>
       <c r="F118">
+        <v>0</v>
+      </c>
+      <c r="G118">
+        <v>0</v>
+      </c>
+      <c r="H118">
         <v>-1873482901.951545</v>
       </c>
-      <c r="G118">
+      <c r="I118">
         <v>-2069879219.303373</v>
       </c>
-      <c r="H118">
+      <c r="J118">
         <v>-1947778505.568197</v>
       </c>
-      <c r="I118">
+      <c r="K118">
         <v>-2079719123.868376</v>
       </c>
-      <c r="J118">
+      <c r="L118">
         <v>-251724162.4398518</v>
       </c>
-      <c r="K118">
+      <c r="M118">
         <v>-278112286.0998876</v>
       </c>
-      <c r="L118">
+      <c r="N118">
         <v>-1258620812.19926</v>
       </c>
-      <c r="M118">
+      <c r="O118">
         <v>-1390561430.499439</v>
       </c>
     </row>
-    <row r="119" spans="1:13">
+    <row r="119" spans="1:15">
       <c r="A119" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B119">
         <v>0.504179661327714</v>
@@ -5637,33 +6351,39 @@
         <v>107593</v>
       </c>
       <c r="F119">
+        <v>0</v>
+      </c>
+      <c r="G119">
+        <v>0</v>
+      </c>
+      <c r="H119">
         <v>21443016.02845266</v>
       </c>
-      <c r="G119">
+      <c r="I119">
         <v>40925602.68122429</v>
       </c>
-      <c r="H119">
+      <c r="J119">
         <v>45229590.48635325</v>
       </c>
-      <c r="I119">
+      <c r="K119">
         <v>58318148.17274098</v>
       </c>
-      <c r="J119">
+      <c r="L119">
         <v>2881117.967142344</v>
       </c>
-      <c r="K119">
+      <c r="M119">
         <v>5498829.504419887</v>
       </c>
-      <c r="L119">
+      <c r="N119">
         <v>14405589.8357117</v>
       </c>
-      <c r="M119">
+      <c r="O119">
         <v>27494147.52209944</v>
       </c>
     </row>
-    <row r="120" spans="1:13">
+    <row r="120" spans="1:15">
       <c r="A120" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B120">
         <v>0.176418937746618</v>
@@ -5678,33 +6398,39 @@
         <v>94056588.5</v>
       </c>
       <c r="F120">
+        <v>37720488719.37246</v>
+      </c>
+      <c r="G120">
+        <v>7680824462.047056</v>
+      </c>
+      <c r="H120">
         <v>23066190.76233399</v>
       </c>
-      <c r="G120">
+      <c r="I120">
         <v>989877560.4236734</v>
       </c>
-      <c r="H120">
+      <c r="J120">
         <v>-15245533.80487227</v>
       </c>
-      <c r="I120">
+      <c r="K120">
         <v>634266084.4004941</v>
       </c>
-      <c r="J120">
+      <c r="L120">
         <v>3099210.323338509</v>
       </c>
-      <c r="K120">
+      <c r="M120">
         <v>133001533.9644118</v>
       </c>
-      <c r="L120">
+      <c r="N120">
         <v>15496051.61669243</v>
       </c>
-      <c r="M120">
+      <c r="O120">
         <v>665007669.8220588</v>
       </c>
     </row>
-    <row r="121" spans="1:13">
+    <row r="121" spans="1:15">
       <c r="A121" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B121">
         <v>0.1850244517061759</v>
@@ -5731,21 +6457,27 @@
         <v>0</v>
       </c>
       <c r="J121">
+        <v>0</v>
+      </c>
+      <c r="K121">
+        <v>0</v>
+      </c>
+      <c r="L121">
         <v>0.000244140625</v>
       </c>
-      <c r="K121">
+      <c r="M121">
         <v>0.000244140625</v>
       </c>
-      <c r="L121">
-        <v>0</v>
-      </c>
-      <c r="M121">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:13">
+      <c r="N121">
+        <v>0</v>
+      </c>
+      <c r="O121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15">
       <c r="A122" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B122">
         <v>0.3322926075144546</v>
@@ -5760,33 +6492,39 @@
         <v>55640856.25</v>
       </c>
       <c r="F122">
+        <v>86191971741.78984</v>
+      </c>
+      <c r="G122">
+        <v>15808184832.85762</v>
+      </c>
+      <c r="H122">
         <v>1424813890.52843</v>
       </c>
-      <c r="G122">
+      <c r="I122">
         <v>2794610973.738906</v>
       </c>
-      <c r="H122">
+      <c r="J122">
         <v>1086687194.610899</v>
       </c>
-      <c r="I122">
+      <c r="K122">
         <v>2006927841.388436</v>
       </c>
-      <c r="J122">
+      <c r="L122">
         <v>191440275.6770995</v>
       </c>
-      <c r="K122">
+      <c r="M122">
         <v>375488405.0326069</v>
       </c>
-      <c r="L122">
+      <c r="N122">
         <v>957201378.3854972</v>
       </c>
-      <c r="M122">
+      <c r="O122">
         <v>1877442025.163034</v>
       </c>
     </row>
-    <row r="123" spans="1:13">
+    <row r="123" spans="1:15">
       <c r="A123" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B123">
         <v>0.110305415721579</v>
@@ -5801,27 +6539,33 @@
         <v>15967348</v>
       </c>
       <c r="F123">
+        <v>2189217368.947853</v>
+      </c>
+      <c r="G123">
+        <v>284694083.3487357</v>
+      </c>
+      <c r="H123">
         <v>-17807496.75874805</v>
       </c>
-      <c r="G123">
+      <c r="I123">
         <v>38416415.15328686</v>
       </c>
-      <c r="H123">
+      <c r="J123">
         <v>-15290918.77142668</v>
       </c>
-      <c r="I123">
+      <c r="K123">
         <v>22480755.36663559</v>
       </c>
-      <c r="J123">
+      <c r="L123">
         <v>-2392643.777040541</v>
       </c>
-      <c r="K123">
+      <c r="M123">
         <v>5161691.050571911</v>
       </c>
-      <c r="L123">
+      <c r="N123">
         <v>-11963218.88520274</v>
       </c>
-      <c r="M123">
+      <c r="O123">
         <v>25808455.25285953</v>
       </c>
     </row>
